--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1585116557680335</v>
+        <v>0.1489843118368107</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03966587942476921</v>
+        <v>0.02092545765371042</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04295265971998712</v>
+        <v>0.02385667424774729</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006526754495710911</v>
+        <v>0.007895350395704057</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01608251755217005</v>
+        <v>0.0156465470575076</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002601429963958803</v>
+        <v>0.0826293014540387</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05838409227890697</v>
+        <v>0.02195496937843094</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01879699862275782</v>
+        <v>0.01359406282148375</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002055369385398522</v>
+        <v>0.002838557853355938</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003536747884903331</v>
+        <v>0.06848550401141708</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04616904859909806</v>
+        <v>0.0492558630594695</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0627676132833391</v>
+        <v>0.04167167173908094</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05627051267654157</v>
+        <v>0.06653148370284083</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05540861805284621</v>
+        <v>0.04339258497831624</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06732558310767665</v>
+        <v>0.08479933554066807</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02039640736581334</v>
+        <v>0.04878572814938424</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01279450793818706</v>
+        <v>0.007193072955584017</v>
       </c>
       <c r="V2" t="n">
-        <v>0.07126707967225702</v>
+        <v>0.04051017791308235</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004173370992404751</v>
+        <v>0.001471576420371627</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02056164083534744</v>
+        <v>0.08335472114243771</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.05094708000065448</v>
+        <v>0.049105108669355</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.06390887609386538</v>
+        <v>0.0599473199151464</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.02381410828883123</v>
+        <v>0.002946026321210971</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.06828976805316739</v>
+        <v>0.01075712228902194</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.005776090666966011</v>
+        <v>0.00298550702824985</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.02060023810998851</v>
+        <v>0.02238614134774754</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.04679055536344558</v>
+        <v>0.0214476634236048</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.04806491995978317</v>
+        <v>0.02262019826629633</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0664128185787872</v>
+        <v>0.08301227226473576</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1254294995216586</v>
+        <v>0.1080459066698215</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3115649879584708</v>
+        <v>0.5319397584582419</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002269649132490961</v>
+        <v>0.06499196425645572</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004993796922889883</v>
+        <v>0.06568509279647056</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00812854753524273</v>
+        <v>0.01642422277717322</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01237248786071831</v>
+        <v>0.008008996541272266</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03898070348282263</v>
+        <v>0.01251042762797833</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06034334762361093</v>
+        <v>0.003488363646343585</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07213518838653438</v>
+        <v>0.02347920863896657</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004390684546425223</v>
+        <v>0.003698960849547996</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06511432146606468</v>
+        <v>0.0260728637521168</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04907470225707126</v>
+        <v>0.04464892950899683</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02427155027351768</v>
+        <v>0.07698222715623554</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02048216145454965</v>
+        <v>0.0398273953190357</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06078357779735093</v>
+        <v>0.0456284190196397</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01317811408744077</v>
+        <v>0.01103081479313318</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07600503277581121</v>
+        <v>0.04818299266369632</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0008860368969158535</v>
+        <v>0.003459799981213165</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06840734525205636</v>
+        <v>0.01635949569741106</v>
       </c>
       <c r="W3" t="n">
-        <v>0.003868639641696404</v>
+        <v>0.06610755444272604</v>
       </c>
       <c r="X3" t="n">
-        <v>0.07541312448645365</v>
+        <v>0.07128874168500797</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0002422675058971408</v>
+        <v>0.0354689591118724</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.05511463405344055</v>
+        <v>0.003436508959302877</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03592755257880438</v>
+        <v>0.02575637383287177</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.07946049472137307</v>
+        <v>0.04386033676523834</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.04285287048616123</v>
+        <v>0.07239873333669984</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.04387056677705736</v>
+        <v>0.0521948250305013</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.03805119174949365</v>
+        <v>0.02430070425865843</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.004653160970183065</v>
+        <v>0.01785635514649185</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0387282492779261</v>
+        <v>0.07685073240494261</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.1067882719986197</v>
+        <v>0.07945207144514034</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2286863494555825</v>
+        <v>0.2247528359422422</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01291959689713013</v>
+        <v>0.01223836976342271</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03343438328306228</v>
+        <v>0.04364099828563085</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06687769570324777</v>
+        <v>0.02011300059296712</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04703914652332823</v>
+        <v>0.07037015822440593</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04194681760105601</v>
+        <v>0.02831430835571883</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03449988420034546</v>
+        <v>0.07820079703172741</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04464592778554305</v>
+        <v>0.03912661594338809</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05419678569785517</v>
+        <v>0.01962078593441847</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01918509110371341</v>
+        <v>0.008412059577266659</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01617261773527661</v>
+        <v>0.002202311256896803</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06768300440436666</v>
+        <v>0.07477039798703045</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02957439503354247</v>
+        <v>0.004758965916352594</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05287461338998851</v>
+        <v>0.03183972798527208</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01898826624183938</v>
+        <v>0.05462410094107954</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06830092059344421</v>
+        <v>0.07804218960072612</v>
       </c>
       <c r="U4" t="n">
-        <v>0.000834575776924496</v>
+        <v>0.00745428717622449</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06319396853642312</v>
+        <v>0.04245088667504985</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03491796982537064</v>
+        <v>0.0561056762944469</v>
       </c>
       <c r="X4" t="n">
-        <v>0.007556459190370975</v>
+        <v>0.02560966520205436</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0028296841891201</v>
+        <v>0.00227780023468695</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.06610909547058105</v>
+        <v>0.02458215908591707</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.003079140853249611</v>
+        <v>0.000465682381637397</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.06788502049809496</v>
+        <v>0.05639181867469627</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.009291860267286326</v>
+        <v>0.04710612811765989</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.05837738176223156</v>
+        <v>0.03332987646229592</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.01717424858532892</v>
+        <v>0.05537547321632756</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.003809929582117206</v>
+        <v>0.0308330630776649</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.05660151926916185</v>
+        <v>0.05174269600503494</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.3689244584953007</v>
+        <v>-0.3128084454615781</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7602474747233801</v>
+        <v>0.7448192737040756</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04721900595824248</v>
+        <v>0.03991518926839698</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05299945193337274</v>
+        <v>0.05193110245678806</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001076288028277299</v>
+        <v>0.05200987747748023</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006882976884085901</v>
+        <v>0.03994408166766163</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06887078677846581</v>
+        <v>0.04425488630036657</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04938506339734496</v>
+        <v>0.02514896503870719</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01353355946255596</v>
+        <v>0.008195065496979471</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02753017088437893</v>
+        <v>0.06444737937041137</v>
       </c>
       <c r="N5" t="n">
-        <v>0.008620505404045612</v>
+        <v>0.03262245078059525</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0560100999233842</v>
+        <v>0.006212174365600576</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07355773345058644</v>
+        <v>0.01151392765683985</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06711633312666285</v>
+        <v>0.06531751895321045</v>
       </c>
       <c r="R5" t="n">
-        <v>0.009562137463060281</v>
+        <v>0.002678505199473875</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01006891537198132</v>
+        <v>0.0146747299998933</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02651190623893317</v>
+        <v>0.02120970454556939</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0417682519932926</v>
+        <v>0.005638095889163592</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0008364502295562412</v>
+        <v>0.03832430132550679</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03257287781053753</v>
+        <v>0.03574284834648053</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06842450084332033</v>
+        <v>0.06064153680319385</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.05973843162078055</v>
+        <v>0.06351632084649199</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.005751623767712515</v>
+        <v>0.03228250931925369</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.939776838589528e-05</v>
+        <v>1.567429201649091e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01377101210735133</v>
+        <v>0.04880875453255876</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0457097665391124</v>
+        <v>0.04844417007047624</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.07599523122353433</v>
+        <v>0.05097173326199492</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.05951619320393449</v>
+        <v>0.01712307372483074</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02822890582914143</v>
+        <v>0.05226950715709638</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.04872242275796273</v>
+        <v>0.0661459158529618</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.3824474697236977</v>
+        <v>-0.3855258351895</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2513917300725624</v>
+        <v>0.2520991336078812</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005753886272017766</v>
+        <v>0.01362840740234908</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04026304999356405</v>
+        <v>0.02911636105369333</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005508366496812539</v>
+        <v>0.005863617539078264</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02413095470864656</v>
+        <v>0.03331196821725563</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05459328160203235</v>
+        <v>0.02663942354154341</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06249726395413294</v>
+        <v>0.01657729378695371</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01333770792459337</v>
+        <v>0.03076428436016528</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05938070082656322</v>
+        <v>0.0225574246397827</v>
       </c>
       <c r="N6" t="n">
-        <v>0.06120718799707553</v>
+        <v>0.06686708053958608</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001016228662291182</v>
+        <v>0.006466057411813222</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02821816998250733</v>
+        <v>0.0381240231350194</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.006834821983585887</v>
+        <v>0.01320359709164175</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02803981293145138</v>
+        <v>0.05989198344988515</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06271071940236303</v>
+        <v>0.03251530946988067</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0006433229272802277</v>
+        <v>0.02965841436994874</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03970075440123259</v>
+        <v>0.05402437013010668</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04846357503670835</v>
+        <v>0.04771251999257049</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01472659528692291</v>
+        <v>0.01905702885653016</v>
       </c>
       <c r="X6" t="n">
-        <v>0.06378410284872991</v>
+        <v>0.05828964048601938</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.05977849879330534</v>
+        <v>0.06067231289318466</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.04823831607797589</v>
+        <v>0.04628450655033269</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01715394013980624</v>
+        <v>0.0009863556162809681</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.03736296906313046</v>
+        <v>0.03151048759452982</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.04718515099724062</v>
+        <v>0.03727350987445723</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.04320632619381783</v>
+        <v>0.05431412609936655</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.03681505915212262</v>
+        <v>0.02655521716223287</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.03083547325269361</v>
+        <v>0.07055583005141611</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.05861376309139624</v>
+        <v>0.06757884868437602</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.2194085397666959</v>
+        <v>0.2192504910394083</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.236941583041394</v>
+        <v>1.159046459541337</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03660296573429404</v>
+        <v>0.08534908054789009</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05058215317805113</v>
+        <v>0.09453491907791597</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08950308385752469</v>
+        <v>0.04074174121858311</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0226626339764773</v>
+        <v>0.0200325642690583</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01216515174979049</v>
+        <v>0.01979242504068594</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04036764821501129</v>
+        <v>0.00157594115950947</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02854450560547712</v>
+        <v>0.007304280254350288</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04088237549884823</v>
+        <v>0.08625378895721848</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04325468180184696</v>
+        <v>0.02724084954367374</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09142541247545771</v>
+        <v>0.09142530633026766</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03831485020889482</v>
+        <v>0.05088574231290913</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001508081673683078</v>
+        <v>0.04928523274723463</v>
       </c>
       <c r="R7" t="n">
-        <v>0.030064475644817</v>
+        <v>0.02004572644441617</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03736811438062806</v>
+        <v>0.07050182351607291</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03162221312553234</v>
+        <v>0.03714234532563407</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05580993625653056</v>
+        <v>0.01466137037512801</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03781161379911413</v>
+        <v>0.002080338590730094</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09148914968762277</v>
+        <v>0.06429960998032329</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03831680941778591</v>
+        <v>0.03791271555418659</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.008605446557016524</v>
+        <v>0.1009556681532951</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.002043340020945711</v>
+        <v>0.004142026141443254</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.007579360686909634</v>
+        <v>0.008046748908317728</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0110480028567778</v>
+        <v>0.005398347118038466</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.03267551834285714</v>
+        <v>0.01320750203054705</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.05012497720350701</v>
+        <v>0.007819153000145128</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03973169786040329</v>
+        <v>0.0274242136882698</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01138376531963359</v>
+        <v>0.005124250641674089</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.01851203486456156</v>
+        <v>0.006816289072481555</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2965081863417544</v>
+        <v>0.2632554193539478</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.4525695931946326</v>
+        <v>0.435550692565993</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0001163667613070876</v>
+        <v>0.006989804262459111</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003843765056488122</v>
+        <v>0.003320845966123808</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003994814295336053</v>
+        <v>0.01878245664313396</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05183149387027935</v>
+        <v>0.06255931495846034</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005122782169950764</v>
+        <v>0.04734124071051356</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0226704407395801</v>
+        <v>0.03623714610948107</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04074283232368484</v>
+        <v>0.02526523722116675</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02139849163066668</v>
+        <v>0.06724754803943656</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002095745362854967</v>
+        <v>0.03777186009780637</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02494891359835234</v>
+        <v>0.03060519231512628</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02381159869818558</v>
+        <v>0.07368045711934833</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.009789478801123793</v>
+        <v>0.004781864846163197</v>
       </c>
       <c r="R8" t="n">
-        <v>0.004935812948940973</v>
+        <v>0.003227255870853662</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02889582454479346</v>
+        <v>0.0454126231395317</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04265510633518582</v>
+        <v>0.07298290702867581</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06970011458830301</v>
+        <v>0.04118155076668042</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06904675322637831</v>
+        <v>0.07244367910583738</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01020218189134201</v>
+        <v>0.008597489067591104</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0473079056499522</v>
+        <v>0.01934899116092094</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0354491451813113</v>
+        <v>0.01310648459947749</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.04780870119331374</v>
+        <v>0.04106721441962908</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.05297871971474086</v>
+        <v>0.0677615967932035</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.05651210854594935</v>
+        <v>0.02452768727110191</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.06468651665773084</v>
+        <v>0.05434594587150775</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.06606033643603376</v>
+        <v>0.04312229009542812</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.06423399162129195</v>
+        <v>0.02245732699636852</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.05939221283568175</v>
+        <v>0.0151924432020952</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.06976784532124097</v>
+        <v>0.04064154632187822</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.07532647720340466</v>
+        <v>0.121587203999592</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.354942062000486</v>
+        <v>1.758268797763061</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04008695395135006</v>
+        <v>0.04816204306510749</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08396236303853874</v>
+        <v>0.02096300386766003</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03894464395619395</v>
+        <v>0.04288176749454409</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02772604374655986</v>
+        <v>0.08173678843487804</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01426097061863169</v>
+        <v>0.02378955026844362</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03547308025796733</v>
+        <v>0.05735969715738711</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03415699166715273</v>
+        <v>0.01495961182657933</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03475519310302976</v>
+        <v>0.04311969108071039</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001797462960624117</v>
+        <v>0.0008388911685754405</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01867421879712971</v>
+        <v>0.024744057636576</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01898038348163992</v>
+        <v>0.05881114993688205</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.05856634355607241</v>
+        <v>0.07592873746572136</v>
       </c>
       <c r="R9" t="n">
-        <v>5.09395565206842e-06</v>
+        <v>1.539351424315483e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01406300460744159</v>
+        <v>0.006320885238623428</v>
       </c>
       <c r="T9" t="n">
-        <v>0.05990762639618092</v>
+        <v>0.02489098707350756</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04830099163925759</v>
+        <v>0.009823699279024895</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01143708612237136</v>
+        <v>0.03450576715751898</v>
       </c>
       <c r="W9" t="n">
-        <v>0.07780770887596498</v>
+        <v>0.0122949779801885</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01504349513375522</v>
+        <v>0.02428561968486214</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02291796635209212</v>
+        <v>0.04809170941171457</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.02630426176662155</v>
+        <v>0.04133045112528871</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02019052451359043</v>
+        <v>0.009615251974482869</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.04616578057964674</v>
+        <v>0.02484065511548661</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.06574831945346538</v>
+        <v>0.03711848451980554</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.03498235180448789</v>
+        <v>0.06553968724784466</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.08481136564912412</v>
+        <v>0.05971617398087437</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0264341824229333</v>
+        <v>0.08240990853764905</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.03849559159252444</v>
+        <v>0.02590535875581993</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1068341567071205</v>
+        <v>0.1422309851853292</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.4742606003000226</v>
+        <v>0.3644486376740486</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006169571933334784</v>
+        <v>0.03253643086149809</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05377922667066728</v>
+        <v>0.002728771808176427</v>
       </c>
       <c r="H10" t="n">
-        <v>0.008885209839834311</v>
+        <v>0.003523384970891313</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06083386502756401</v>
+        <v>0.07776190734793209</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04469319232643196</v>
+        <v>0.02054085424105426</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00925111488835698</v>
+        <v>0.00507604198779282</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07171895666761852</v>
+        <v>0.04544219449917736</v>
       </c>
       <c r="M10" t="n">
-        <v>0.050463785721695</v>
+        <v>0.01148982793114312</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01978226670409346</v>
+        <v>0.0449248711656746</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04852084277106732</v>
+        <v>0.001051978102470909</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04863712755024725</v>
+        <v>0.06085424912307678</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.007460137993030625</v>
+        <v>0.000641407953643741</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01180158388883162</v>
+        <v>0.009920155023197645</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03530326500644104</v>
+        <v>0.04770130824471484</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03446516856200171</v>
+        <v>0.07463924727441343</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0386759062544639</v>
+        <v>0.07921896745573967</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03189128631163414</v>
+        <v>0.01286293857220161</v>
       </c>
       <c r="W10" t="n">
-        <v>0.07033890080978536</v>
+        <v>0.06944729703351329</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02236413622779013</v>
+        <v>0.006076544685599468</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.06934607452142538</v>
+        <v>0.08039720564387841</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.05716965079462539</v>
+        <v>0.06699924616383687</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.04319847347588678</v>
+        <v>0.05131200190774092</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01877596286429966</v>
+        <v>0.05497608441150083</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0179085741073059</v>
+        <v>0.00285799421141943</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.006292350005030905</v>
+        <v>0.01491665875698889</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01538191690382697</v>
+        <v>0.01553446485668976</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.04598541399497405</v>
+        <v>0.02770797664654524</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.05090603817773561</v>
+        <v>0.07885998911948812</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.01087921653553274</v>
+        <v>0.043524765108687</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5155449489020751</v>
+        <v>0.6027538402381585</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04621509015053572</v>
+        <v>0.05047880556479229</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01233047061483696</v>
+        <v>0.05911794578346411</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003474074119824935</v>
+        <v>0.009347899697835194</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01750805198714572</v>
+        <v>0.0285968812840376</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07870530062930142</v>
+        <v>0.009490430321972778</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01043167398635774</v>
+        <v>0.0009071445740787851</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06482066147282181</v>
+        <v>0.05497643020715153</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06846593724259877</v>
+        <v>0.07714574307914442</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0142149624539772</v>
+        <v>0.001063359053191365</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07169008843660046</v>
+        <v>0.05474378977411419</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03744195254494392</v>
+        <v>0.03325627252664921</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01068020548940816</v>
+        <v>0.001458956243561067</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02301122089498976</v>
+        <v>0.002978818406278697</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05943857505322079</v>
+        <v>0.01883972282551381</v>
       </c>
       <c r="T11" t="n">
-        <v>0.07466953325006703</v>
+        <v>0.01525771868723163</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01969672590969698</v>
+        <v>0.04574227986967846</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03550157467364418</v>
+        <v>0.06047506147881281</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06708044991540477</v>
+        <v>0.03317923314784564</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01802918750081978</v>
+        <v>0.01970123447603672</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.07439211272878757</v>
+        <v>0.06778666798531102</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.007603350043729079</v>
+        <v>0.02632430048730462</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.02757510187341881</v>
+        <v>0.04357096277480476</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.03911234777006619</v>
+        <v>0.07395499970196286</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.04100056937672959</v>
+        <v>0.01685686814071739</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.004313305278658036</v>
+        <v>0.02096771320257471</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.01974307106310394</v>
+        <v>0.04375638533274909</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.02860384976229622</v>
+        <v>0.05557561900757786</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.02425055577701473</v>
+        <v>0.07444875636560726</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01039860762837691</v>
+        <v>0.01746674402821073</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1621684378113191</v>
+        <v>0.1640182340393827</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02231780070509113</v>
+        <v>0.04815984481395089</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06022213609484645</v>
+        <v>0.01505834065632958</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02341459408722983</v>
+        <v>0.001034111511497691</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06085221651339217</v>
+        <v>0.01619407838991111</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003012201256456943</v>
+        <v>0.01119199648149507</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02560430778235799</v>
+        <v>0.001402236227483223</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03603985837222835</v>
+        <v>0.03232531993510931</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03638433413641713</v>
+        <v>0.02430066696680016</v>
       </c>
       <c r="N12" t="n">
-        <v>0.03588299292844863</v>
+        <v>0.05135719299413356</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03513920781510214</v>
+        <v>0.06616026212960652</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06064557866646587</v>
+        <v>0.006494803108240578</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.03689561508128426</v>
+        <v>0.05113407969365152</v>
       </c>
       <c r="R12" t="n">
-        <v>0.004525468125063821</v>
+        <v>0.02451506974090414</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01917580520524323</v>
+        <v>0.06635904794592658</v>
       </c>
       <c r="T12" t="n">
-        <v>0.07268200133182127</v>
+        <v>0.09137457018077433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01552734717297491</v>
+        <v>0.06091082817827348</v>
       </c>
       <c r="V12" t="n">
-        <v>0.07107789383134576</v>
+        <v>0.08378868770855408</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0005118782685431751</v>
+        <v>0.02087275873769553</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01666135312683615</v>
+        <v>0.00795400069120375</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.03870810802522191</v>
+        <v>0.08491269398791805</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.04850756857854509</v>
+        <v>0.00122610500665683</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.00549391247555792</v>
+        <v>0.002623190724371333</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06996797979134371</v>
+        <v>0.06239765640805088</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.04865196444064609</v>
+        <v>0.01345426065042102</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.001032153814341754</v>
+        <v>0.02041061828678365</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.06365692202701025</v>
+        <v>0.006384593326577637</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.03335157215889142</v>
+        <v>0.04132692422451049</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.05405722818729255</v>
+        <v>0.08667606129316893</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1286846213102146</v>
+        <v>0.09706595934071878</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2344528517758712</v>
+        <v>0.2754762638030799</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01002504422159588</v>
+        <v>0.006785949306171893</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06793666734908786</v>
+        <v>0.02797840865033055</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006826084138318973</v>
+        <v>0.02348474669879921</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03525935158598602</v>
+        <v>0.03847962453197165</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02136349547071259</v>
+        <v>0.01358466496215254</v>
       </c>
       <c r="K13" t="n">
-        <v>0.008835643733828981</v>
+        <v>0.01221741430373462</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01596974444371818</v>
+        <v>0.009993058212781515</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05144009323330573</v>
+        <v>0.01870396352439926</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0355066981506881</v>
+        <v>0.05819570922359249</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003479609269719515</v>
+        <v>0.006686588855002662</v>
       </c>
       <c r="P13" t="n">
-        <v>0.007161051906595975</v>
+        <v>0.008588521290817558</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.05809908699352014</v>
+        <v>0.00917478857507615</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0775880738070803</v>
+        <v>0.08818932548059037</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0221491150780392</v>
+        <v>0.008977033514831815</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0606087455716991</v>
+        <v>0.08287162277548739</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001805387929463479</v>
+        <v>0.05227088305715311</v>
       </c>
       <c r="V13" t="n">
-        <v>0.05058953979243074</v>
+        <v>0.01800873126778936</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08823276874548043</v>
+        <v>0.05073956490540515</v>
       </c>
       <c r="X13" t="n">
-        <v>0.09230241819443531</v>
+        <v>0.08750208857737385</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.07899724146818209</v>
+        <v>0.0610219806133037</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.005431450351164308</v>
+        <v>0.004529901332712582</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.07049472444360477</v>
+        <v>0.03410615865902968</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0259113816759956</v>
+        <v>0.01664517014444013</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.02061798468848301</v>
+        <v>0.01394636448656843</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.06672525333195664</v>
+        <v>0.07622471656325457</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.002151044953890126</v>
+        <v>0.08605458497487077</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.00222555187056343</v>
+        <v>0.08470720481876828</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.01226674760045354</v>
+        <v>0.0003312306935904134</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.07201865134445053</v>
+        <v>0.09434475753397736</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.166410056462298</v>
+        <v>0.1618343397379863</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00869680241485795</v>
+        <v>0.02040714948977084</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01195922324252808</v>
+        <v>0.01354738754454134</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06011142382188716</v>
+        <v>0.05217491078027445</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05087097756280221</v>
+        <v>0.01680122975996496</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0781071056062152</v>
+        <v>0.009549087155874048</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04090555107589254</v>
+        <v>0.0003519507802466775</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0268755114917461</v>
+        <v>0.01236172249259066</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05458255862598032</v>
+        <v>0.03205534270280699</v>
       </c>
       <c r="N14" t="n">
-        <v>0.05577456151932374</v>
+        <v>0.0879309716230864</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06102656369520879</v>
+        <v>0.013378598964965</v>
       </c>
       <c r="P14" t="n">
-        <v>0.006134839451187827</v>
+        <v>0.0336653674776691</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02024291266619701</v>
+        <v>0.08421332897345395</v>
       </c>
       <c r="R14" t="n">
-        <v>0.04486224046618998</v>
+        <v>0.04500421312762783</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03993623776151842</v>
+        <v>0.07131823876708707</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06882578536598608</v>
+        <v>0.04775502364897731</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05215200210678089</v>
+        <v>0.02936510828850081</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01247368257647554</v>
+        <v>0.05042316909846447</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07787005983555963</v>
+        <v>0.01520195073776002</v>
       </c>
       <c r="X14" t="n">
-        <v>0.02182654576948711</v>
+        <v>0.04634930077694877</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.000401596216877431</v>
+        <v>0.0001424036285551158</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.007018049155182933</v>
+        <v>0.01143918364598623</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.02485628045785301</v>
+        <v>0.0895295153544779</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.02981922673310055</v>
+        <v>0.0727760711176159</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.008636493251184532</v>
+        <v>0.0265210758469803</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.007184481650520951</v>
+        <v>0.001176724167615819</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0609380828444399</v>
+        <v>0.07007584841213393</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.06595942872194227</v>
+        <v>0.03974725464219929</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.001951775913073685</v>
+        <v>0.006737870993824622</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.2331843858863377</v>
+        <v>0.2572524436251866</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.187568323625321</v>
+        <v>1.71253074066007</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005666544968023258</v>
+        <v>0.003407544077640993</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03081616213117449</v>
+        <v>0.06610442963061548</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02282743169766667</v>
+        <v>0.01179681476647631</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02763788501374374</v>
+        <v>0.05920101346117779</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06792804365365801</v>
+        <v>0.03811381810938909</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01221875445733066</v>
+        <v>0.003571258190343331</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0626120544965879</v>
+        <v>0.0148400516347445</v>
       </c>
       <c r="M15" t="n">
-        <v>0.007369250375527766</v>
+        <v>0.02481448950511991</v>
       </c>
       <c r="N15" t="n">
-        <v>0.05035262808613002</v>
+        <v>0.007591800734756737</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04173469596582137</v>
+        <v>0.008837239809069872</v>
       </c>
       <c r="P15" t="n">
-        <v>0.02451843190645073</v>
+        <v>0.08156071714997683</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.001519847398803721</v>
+        <v>0.008716781242235907</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04926975403438724</v>
+        <v>0.05801796863079049</v>
       </c>
       <c r="S15" t="n">
-        <v>0.04007115155591357</v>
+        <v>0.07245497812885626</v>
       </c>
       <c r="T15" t="n">
-        <v>0.05091953420016849</v>
+        <v>0.0249767812802763</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06146191789772206</v>
+        <v>0.06394180039509741</v>
       </c>
       <c r="V15" t="n">
-        <v>0.008419727093502942</v>
+        <v>0.03321211871668725</v>
       </c>
       <c r="W15" t="n">
-        <v>0.05188275455571884</v>
+        <v>0.02201702700305107</v>
       </c>
       <c r="X15" t="n">
-        <v>0.04641986165454183</v>
+        <v>0.04615923852229678</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.05789547123503047</v>
+        <v>0.08319116030856465</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.04423994844791774</v>
+        <v>0.0164840074468194</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.06194081707138284</v>
+        <v>0.0264553801798816</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0630453651754124</v>
+        <v>0.04075397052391692</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.009036278084753319</v>
+        <v>0.01578783966325329</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.03156065509325164</v>
+        <v>0.0748517585468947</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.04784071165270974</v>
+        <v>0.03827017927415712</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01735314635301645</v>
+        <v>0.05231462417640788</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.003441175743652154</v>
+        <v>0.002555208891502162</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2242479814544909</v>
+        <v>0.2393226478642493</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.183255056021467</v>
+        <v>0.2103338702389858</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03156079501567634</v>
+        <v>0.05047647599003496</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01267794576227543</v>
+        <v>0.07823199546440859</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01071877153411814</v>
+        <v>0.009395836028354301</v>
       </c>
       <c r="I16" t="n">
-        <v>0.003043043612242343</v>
+        <v>0.00488666285005168</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04464635773221164</v>
+        <v>0.08780885622859429</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01939998340518482</v>
+        <v>0.07676666421026318</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07118019970341034</v>
+        <v>0.01101770051179839</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0542471455585542</v>
+        <v>0.01036071214118201</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02130558995548336</v>
+        <v>0.08609914385737051</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01182386642637463</v>
+        <v>0.00275802944491106</v>
       </c>
       <c r="P16" t="n">
-        <v>0.07482664894414615</v>
+        <v>0.08689940364353976</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01947762578342357</v>
+        <v>0.0001511005626392059</v>
       </c>
       <c r="R16" t="n">
-        <v>0.04297907685665159</v>
+        <v>0.04524633777535267</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02066087227651827</v>
+        <v>0.0516949157555879</v>
       </c>
       <c r="T16" t="n">
-        <v>0.08217548801199223</v>
+        <v>0.05157391227043082</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01552334649667957</v>
+        <v>0.03494833688093477</v>
       </c>
       <c r="V16" t="n">
-        <v>0.07218026717782396</v>
+        <v>0.01428454975424289</v>
       </c>
       <c r="W16" t="n">
-        <v>0.08120131430860296</v>
+        <v>0.04086464415947033</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0006126559277640479</v>
+        <v>0.0004186981358478701</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.06536622552374691</v>
+        <v>0.00657054718649048</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.01254235964925901</v>
+        <v>0.009624687140252927</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.006614794899407694</v>
+        <v>0.03200746802207251</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.03255026392287088</v>
+        <v>0.03767463336039782</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0003999039469832019</v>
+        <v>0.03586245062910295</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.04853812663508374</v>
+        <v>0.0456684361330807</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.06267121755429546</v>
+        <v>0.0246730298540781</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.04955090017694594</v>
+        <v>0.01144850174677933</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.03152521320227362</v>
+        <v>0.05258627026272996</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1147173268412432</v>
+        <v>0.152131098523302</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.8034940660293779</v>
+        <v>0.8506682253610053</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05861116587607417</v>
+        <v>0.08130773915111496</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01586371054061912</v>
+        <v>0.06882870729778778</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03728545699756108</v>
+        <v>0.02940891067836355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0005389191019349757</v>
+        <v>0.002118128024233874</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03894589140138052</v>
+        <v>0.0002830679120199626</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06820465324558372</v>
+        <v>0.02485907783124129</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05655207739554748</v>
+        <v>0.032547611584652</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01232466218352613</v>
+        <v>0.08990115318186558</v>
       </c>
       <c r="N17" t="n">
-        <v>0.003403968342057053</v>
+        <v>0.000670435297174072</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0128468179134531</v>
+        <v>0.01111465317281815</v>
       </c>
       <c r="P17" t="n">
-        <v>0.02491064149930591</v>
+        <v>0.03729154826083169</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.05390571428691772</v>
+        <v>0.02003605571837441</v>
       </c>
       <c r="R17" t="n">
-        <v>0.006239886185625513</v>
+        <v>0.0696652501988905</v>
       </c>
       <c r="S17" t="n">
-        <v>0.05992773981360572</v>
+        <v>0.01451136017822873</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04214366130575638</v>
+        <v>0.05292968116470777</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05884742455945434</v>
+        <v>0.06691401748401153</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02641832092826878</v>
+        <v>0.007315973903888977</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04849719462242188</v>
+        <v>0.00927686427377558</v>
       </c>
       <c r="X17" t="n">
-        <v>0.05834623357369972</v>
+        <v>0.06023372214827535</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.006475672399122857</v>
+        <v>0.02146098837104505</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.06355606302269065</v>
+        <v>0.04516582970220648</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.05429898923287799</v>
+        <v>0.03213901505053394</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.03412544386208779</v>
+        <v>0.02006984873084636</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.02224126642241039</v>
+        <v>0.03366964217270295</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0004960091413041672</v>
+        <v>0.04003456153854729</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0111171296428464</v>
+        <v>0.06282786457824324</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0603476985877024</v>
+        <v>0.04903212695967604</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.06352758791616407</v>
+        <v>0.01638616543394296</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1542037015024689</v>
+        <v>0.1335680796103169</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.4487701561935944</v>
+        <v>0.520594935317363</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07056220898333457</v>
+        <v>0.00801959709244938</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03413998869158708</v>
+        <v>0.003204004540568506</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08798798639214046</v>
+        <v>0.06179619781515696</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05134298608614548</v>
+        <v>0.05848891760843312</v>
       </c>
       <c r="J18" t="n">
-        <v>0.08241368221625277</v>
+        <v>0.06281717316163581</v>
       </c>
       <c r="K18" t="n">
-        <v>0.003678149078451583</v>
+        <v>0.05208230302556951</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004502989940091878</v>
+        <v>0.0008656047017014352</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03040095268787566</v>
+        <v>0.06816401930812598</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01350123553982954</v>
+        <v>0.0120653786102555</v>
       </c>
       <c r="O18" t="n">
-        <v>0.07087519177140653</v>
+        <v>0.02433117036925966</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01312418884821673</v>
+        <v>0.02989030497339419</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.08434321020052539</v>
+        <v>0.05797290224333546</v>
       </c>
       <c r="R18" t="n">
-        <v>0.008344964147870391</v>
+        <v>0.06357758204324156</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0399987693003255</v>
+        <v>0.03261877641529196</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0806101406125994</v>
+        <v>0.06902614006150332</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02136372406897903</v>
+        <v>0.01539004116016138</v>
       </c>
       <c r="V18" t="n">
-        <v>0.02419483993950116</v>
+        <v>0.03963680367518869</v>
       </c>
       <c r="W18" t="n">
-        <v>0.08006652248505762</v>
+        <v>0.008706465547382729</v>
       </c>
       <c r="X18" t="n">
-        <v>0.02002351467379302</v>
+        <v>0.07007510833991118</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0197288298508255</v>
+        <v>0.04228000816342994</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01612086912881894</v>
+        <v>0.009276049868959598</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.004128307576460854</v>
+        <v>0.01735272046792563</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01051006960483302</v>
+        <v>0.0176634195148256</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.009867326460030194</v>
+        <v>0.00967828447790514</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.04136041745179925</v>
+        <v>0.03012233355896096</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.02702006840154178</v>
+        <v>0.06178202685739662</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.04573292229261564</v>
+        <v>0.05538689096563547</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.004055943569091289</v>
+        <v>0.01772977543239485</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.02544025612039762</v>
+        <v>-0.03317052758298038</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.017229051460053</v>
+        <v>0.999634305959606</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06874674374799593</v>
+        <v>0.04660636065721441</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02673358881347246</v>
+        <v>0.02132800273486758</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02735199480315482</v>
+        <v>0.06744375173393355</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02733691008172312</v>
+        <v>0.06770674309832131</v>
       </c>
       <c r="J19" t="n">
-        <v>0.06074374776156932</v>
+        <v>0.03736246802325598</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05086150843257205</v>
+        <v>0.03732128910840271</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00551688929471685</v>
+        <v>0.001573966955875688</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01995093933969803</v>
+        <v>0.02688049194610781</v>
       </c>
       <c r="N19" t="n">
-        <v>0.00286865483488023</v>
+        <v>0.0112233231078856</v>
       </c>
       <c r="O19" t="n">
-        <v>0.07416303650599543</v>
+        <v>0.008403741516051453</v>
       </c>
       <c r="P19" t="n">
-        <v>0.03364070270336082</v>
+        <v>0.009856589620363492</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.04369907820093506</v>
+        <v>0.05614011240042478</v>
       </c>
       <c r="R19" t="n">
-        <v>0.05810093038042211</v>
+        <v>0.04747255897875584</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08230291482355565</v>
+        <v>0.01956327983396304</v>
       </c>
       <c r="T19" t="n">
-        <v>0.05778909330230865</v>
+        <v>0.06915503589833866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.008407129213865216</v>
+        <v>0.06683416041619347</v>
       </c>
       <c r="V19" t="n">
-        <v>0.002187907848937993</v>
+        <v>0.01481710423150194</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01092298217308794</v>
+        <v>0.05280945220720799</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0774934079133652</v>
+        <v>0.008922205398984365</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.06263777372003311</v>
+        <v>0.08107249164281048</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.005467137528703883</v>
+        <v>0.06178964742513816</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.08093003713650018</v>
+        <v>0.08269976318087401</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01514887152123101</v>
+        <v>0.008507678834953403</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.003124301488971259</v>
+        <v>0.01203616109280223</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.03199126596054515</v>
+        <v>0.04603181176304801</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.02539257673077727</v>
+        <v>0.01286316450870191</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.02994537274068491</v>
+        <v>0.02331550320680454</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.006544502996936262</v>
+        <v>0.000263140477217673</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.007797083539283827</v>
+        <v>0.02587712002003402</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1325703905343865</v>
+        <v>0.137600725108716</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03202595267610728</v>
+        <v>0.02177421707163728</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0388964284406737</v>
+        <v>0.03935751697691426</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05950667840534718</v>
+        <v>0.05853182469847851</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04814294928429393</v>
+        <v>0.08148781065169623</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05967164571999978</v>
+        <v>0.02957339929873289</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01391607162076124</v>
+        <v>0.06479590778978779</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04140278067694461</v>
+        <v>0.01166627350891842</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004894584912016921</v>
+        <v>0.05199238501439076</v>
       </c>
       <c r="N20" t="n">
-        <v>0.00178465894701469</v>
+        <v>0.0002765672905351077</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0747364093166511</v>
+        <v>0.01176773122386825</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01637580890937041</v>
+        <v>0.01633132629095314</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01000142702136758</v>
+        <v>0.04088335051825159</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05396806960552386</v>
+        <v>0.02221780372034444</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07961555780460165</v>
+        <v>0.007045478745223329</v>
       </c>
       <c r="T20" t="n">
-        <v>0.02279930941787555</v>
+        <v>0.07061115561854472</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01603561486732189</v>
+        <v>0.07852103542872486</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01777192726115244</v>
+        <v>0.004268799380566224</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02615252330011303</v>
+        <v>0.003779210698472887</v>
       </c>
       <c r="X20" t="n">
-        <v>0.05586705075825497</v>
+        <v>0.07401189180854237</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.06036415739035814</v>
+        <v>0.01276624751803305</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.03030482466018131</v>
+        <v>0.01177823115844283</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.004069850554199861</v>
+        <v>0.02277858585655437</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0512750244868261</v>
+        <v>0.04913586162031051</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0447554083021551</v>
+        <v>0.06924726481175683</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0067759437034007</v>
+        <v>0.00354641370815293</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0558234034763196</v>
+        <v>0.03816016807842458</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.008582592353906182</v>
+        <v>0.01890697239994751</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.06448334612726128</v>
+        <v>0.08478656911379426</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1303460728171322</v>
+        <v>0.1190659008633763</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.4383154816331899</v>
+        <v>0.4998323973918627</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08576659387700182</v>
+        <v>0.0989278151632082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01633461535035825</v>
+        <v>0.01365333629055932</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01616628711084861</v>
+        <v>0.009274001890313294</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01718511212156715</v>
+        <v>0.005940572501436878</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01603621545124907</v>
+        <v>0.02631099106881279</v>
       </c>
       <c r="K21" t="n">
-        <v>0.007284231017929299</v>
+        <v>0.04923572755622881</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04799097278681608</v>
+        <v>0.02010609525152013</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002303229900420282</v>
+        <v>0.01589185771234907</v>
       </c>
       <c r="N21" t="n">
-        <v>0.06882415951791666</v>
+        <v>0.09243519243905914</v>
       </c>
       <c r="O21" t="n">
-        <v>0.06293728173400463</v>
+        <v>0.05366209309815891</v>
       </c>
       <c r="P21" t="n">
-        <v>0.06416571726521426</v>
+        <v>0.04018194572506156</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.06956017053852029</v>
+        <v>0.01833336728241204</v>
       </c>
       <c r="R21" t="n">
-        <v>0.009747864971747348</v>
+        <v>0.01589850795318156</v>
       </c>
       <c r="S21" t="n">
-        <v>0.001037410012214683</v>
+        <v>0.01763924418646915</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04749122646127232</v>
+        <v>0.04946556157999355</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08907049129430888</v>
+        <v>0.0196771256479781</v>
       </c>
       <c r="V21" t="n">
-        <v>0.04630714514113755</v>
+        <v>0.05581377232128719</v>
       </c>
       <c r="W21" t="n">
-        <v>0.02848227821647836</v>
+        <v>0.03967127588980341</v>
       </c>
       <c r="X21" t="n">
-        <v>0.04249064018454944</v>
+        <v>0.03353685676098024</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01532449977158842</v>
+        <v>0.018750387314172</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01121029437129926</v>
+        <v>0.08050448356883373</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.05561650635202894</v>
+        <v>0.020359991162119</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.008389273864483512</v>
+        <v>0.02550657812034734</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.01725978437662624</v>
+        <v>0.01776740340051267</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0815873455109139</v>
+        <v>0.003434135458642757</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.04286195845056826</v>
+        <v>0.02532647166643456</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.02749717575734972</v>
+        <v>0.1062218505221214</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.00107151859158681</v>
+        <v>0.02647335846800309</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.1228050151452262</v>
+        <v>0.08353812266868749</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1499065030234889</v>
+        <v>0.153441773270677</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05702154368713491</v>
+        <v>0.06414051253141734</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04797454954368986</v>
+        <v>0.0007288566209273569</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04015737445446624</v>
+        <v>0.04052527096855175</v>
       </c>
       <c r="I22" t="n">
-        <v>0.008460020347902355</v>
+        <v>0.03561157637122195</v>
       </c>
       <c r="J22" t="n">
-        <v>0.07054338994368961</v>
+        <v>0.01097982058321338</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02922743191175075</v>
+        <v>0.02334196140174953</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02934268444849833</v>
+        <v>0.05374267343776251</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003433081885998328</v>
+        <v>0.002253308711328434</v>
       </c>
       <c r="N22" t="n">
-        <v>0.03336490026478554</v>
+        <v>0.04026225317562888</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01009278175338718</v>
+        <v>0.03982230507930189</v>
       </c>
       <c r="P22" t="n">
-        <v>0.06230658483601046</v>
+        <v>0.02232061490942968</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0568549387423868</v>
+        <v>0.008230732780899842</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0639024661794961</v>
+        <v>0.02171926148350435</v>
       </c>
       <c r="S22" t="n">
-        <v>0.02853101290519045</v>
+        <v>0.04904932816399716</v>
       </c>
       <c r="T22" t="n">
-        <v>0.04727126545419875</v>
+        <v>0.06940523972266233</v>
       </c>
       <c r="U22" t="n">
-        <v>0.001899425688418238</v>
+        <v>0.004839349487889537</v>
       </c>
       <c r="V22" t="n">
-        <v>0.04688035364654522</v>
+        <v>0.05090066918992801</v>
       </c>
       <c r="W22" t="n">
-        <v>0.03339217589068986</v>
+        <v>0.0670218471371419</v>
       </c>
       <c r="X22" t="n">
-        <v>0.002298636555240846</v>
+        <v>0.08102168938250179</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.07916839004009937</v>
+        <v>0.02451147679225223</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.008572373774198594</v>
+        <v>0.07182019371325302</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.04823292186630205</v>
+        <v>0.05023589214602595</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.05865796777359093</v>
+        <v>0.04363851051867584</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.03201843897963416</v>
+        <v>0.02315443619767098</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.003391532233250471</v>
+        <v>0.003962895337382215</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.02875336778945339</v>
+        <v>0.06385918650137926</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.005465370504480885</v>
+        <v>0.001216392672438192</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.06278501889951037</v>
+        <v>0.03168374498186485</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.2020495122315165</v>
+        <v>0.2196208578153532</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.5724028155215816</v>
+        <v>0.6296842386005898</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06457968210309496</v>
+        <v>0.04274819502055611</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04085291651434988</v>
+        <v>0.009220693613197377</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01956938813417911</v>
+        <v>0.06673994482540488</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01459890024906623</v>
+        <v>0.02909453301327235</v>
       </c>
       <c r="J23" t="n">
-        <v>0.04765313598976535</v>
+        <v>0.07642964712353698</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05024954933583925</v>
+        <v>0.05552718802264315</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05420513317776251</v>
+        <v>0.01831455100486554</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0007565869024260876</v>
+        <v>0.001044340467473243</v>
       </c>
       <c r="N23" t="n">
-        <v>0.03645073004726112</v>
+        <v>0.04006475251771383</v>
       </c>
       <c r="O23" t="n">
-        <v>0.05554773397464851</v>
+        <v>0.03466389495840729</v>
       </c>
       <c r="P23" t="n">
-        <v>3.26040388885588e-05</v>
+        <v>0.03610616354685736</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.05136628007570915</v>
+        <v>0.007794519126021872</v>
       </c>
       <c r="R23" t="n">
-        <v>0.03726618437110046</v>
+        <v>0.04015465828516623</v>
       </c>
       <c r="S23" t="n">
-        <v>0.05768100493652743</v>
+        <v>0.05293515570018776</v>
       </c>
       <c r="T23" t="n">
-        <v>0.006408082005391906</v>
+        <v>0.02863912100879249</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01120152129153997</v>
+        <v>0.002883393514962044</v>
       </c>
       <c r="V23" t="n">
-        <v>0.04700619506936465</v>
+        <v>0.03166102248130597</v>
       </c>
       <c r="W23" t="n">
-        <v>0.05060366957285416</v>
+        <v>0.009144533474979634</v>
       </c>
       <c r="X23" t="n">
-        <v>0.05493852094282647</v>
+        <v>0.0595470307765644</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02337916254515836</v>
+        <v>0.06398210381259535</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.01710034757973099</v>
+        <v>0.001673185693489199</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0674638624840174</v>
+        <v>0.001612770854724251</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.02171943298939445</v>
+        <v>0.06452785387609744</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.001364159381619144</v>
+        <v>0.006973095790021956</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.07034639576000812</v>
+        <v>0.0761024377756474</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.05910269903909661</v>
+        <v>0.07101675170149002</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.003510016867992895</v>
+        <v>0.003864304326926983</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.03504610462038622</v>
+        <v>0.06753415768709878</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2205448714704308</v>
+        <v>0.2216983275189489</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3129345754195511</v>
+        <v>0.325388270339049</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03311343011698069</v>
+        <v>0.05148444146566791</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05944421860551782</v>
+        <v>0.05063726495641582</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06243286923990105</v>
+        <v>0.0004251261952854207</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05701930764718563</v>
+        <v>0.05699799719615565</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03904502135149272</v>
+        <v>0.02444733547665852</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01047341515435524</v>
+        <v>0.02754078738051521</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002445196438630449</v>
+        <v>0.007735098137105253</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01279117218506227</v>
+        <v>0.050139678814051</v>
       </c>
       <c r="N24" t="n">
-        <v>0.05878401847498835</v>
+        <v>0.05901240741533221</v>
       </c>
       <c r="O24" t="n">
-        <v>0.007792051776036106</v>
+        <v>0.04907871740200961</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01001395372718422</v>
+        <v>0.001109799158240285</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.002216788311307311</v>
+        <v>0.007068573227464272</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0625198615536053</v>
+        <v>0.03614375772635185</v>
       </c>
       <c r="S24" t="n">
-        <v>0.05481204809624616</v>
+        <v>0.02554692957356325</v>
       </c>
       <c r="T24" t="n">
-        <v>0.05048839851521197</v>
+        <v>0.05775266934118264</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02890376640145105</v>
+        <v>0.0294434867033093</v>
       </c>
       <c r="V24" t="n">
-        <v>0.04306660392568486</v>
+        <v>0.06186142097605326</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0391486005859257</v>
+        <v>0.06258869177221821</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0533257463407071</v>
+        <v>0.04226845273827267</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.04603307216221268</v>
+        <v>0.04345983944723882</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.003186140727136625</v>
+        <v>0.01037747225876709</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.06273152176055249</v>
+        <v>0.03944956115530777</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.04039087705092057</v>
+        <v>0.03358177407415752</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.00818246918180909</v>
+        <v>0.01574112125129624</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.03917431910519815</v>
+        <v>0.03967386826607678</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.04820936073441463</v>
+        <v>0.04840861651542149</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.04216883354092991</v>
+        <v>0.058985585245944</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.02208693728935187</v>
+        <v>0.009039526129937874</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.01604493267953405</v>
+        <v>-0.02485831938478298</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.8150421204100358</v>
+        <v>0.8217490684692305</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04381265967866985</v>
+        <v>0.04030948579510433</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09511797837031143</v>
+        <v>0.04367080335649043</v>
       </c>
       <c r="H25" t="n">
-        <v>0.004453110336296121</v>
+        <v>0.07046164637443428</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03358049275013999</v>
+        <v>0.07010705928801515</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01477811065538697</v>
+        <v>0.02611409255874989</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03247047552525593</v>
+        <v>0.01067201413074695</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04966479323607091</v>
+        <v>0.01536101244026047</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03544804128479385</v>
+        <v>0.03425821406895513</v>
       </c>
       <c r="N25" t="n">
-        <v>0.06899996176719714</v>
+        <v>0.04105094122707583</v>
       </c>
       <c r="O25" t="n">
-        <v>0.007571373267970415</v>
+        <v>0.006335094497914073</v>
       </c>
       <c r="P25" t="n">
-        <v>0.001532211191267937</v>
+        <v>0.0001533549706287028</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.09103695700580497</v>
+        <v>0.08869343986156926</v>
       </c>
       <c r="R25" t="n">
-        <v>0.05199450334291233</v>
+        <v>0.0496955635232661</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0215362427903531</v>
+        <v>0.08106575809870492</v>
       </c>
       <c r="T25" t="n">
-        <v>0.03853657454140128</v>
+        <v>0.006725651173867591</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02362267696035581</v>
+        <v>0.02466519647076434</v>
       </c>
       <c r="V25" t="n">
-        <v>0.01981948144913965</v>
+        <v>0.08901239256653806</v>
       </c>
       <c r="W25" t="n">
-        <v>0.09497735801587807</v>
+        <v>0.0001459910607199954</v>
       </c>
       <c r="X25" t="n">
-        <v>0.02103745901044397</v>
+        <v>0.0276049716905182</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0386224144705441</v>
+        <v>0.02551446111335283</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.01171647180024987</v>
+        <v>0.02316645323577151</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02835148775734388</v>
+        <v>0.04573530736581656</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.02694109981452159</v>
+        <v>0.03997349780343917</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.02380364018491183</v>
+        <v>0.03697056993805911</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.04252251391603405</v>
+        <v>0.02304603704354968</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.005692998185512476</v>
+        <v>0.03991923566688532</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.05890493154857063</v>
+        <v>0.02728551248794561</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.01345398114266176</v>
+        <v>0.01228624219085633</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.008445156321634183</v>
+        <v>-0.01897896224802626</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1176579524018941</v>
+        <v>0.1106271338435765</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02531991252586929</v>
+        <v>0.02903436746507953</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01912746196842723</v>
+        <v>0.06808601981737314</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04552452973883243</v>
+        <v>0.06518982484672199</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01905991418532728</v>
+        <v>0.009554753467391429</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01918699167932345</v>
+        <v>0.04220180546450329</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02603104657061602</v>
+        <v>0.01220622637506168</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0199842910217179</v>
+        <v>0.01232216242308309</v>
       </c>
       <c r="M26" t="n">
-        <v>0.05332337789967033</v>
+        <v>0.04081923709081342</v>
       </c>
       <c r="N26" t="n">
-        <v>0.05884884515002867</v>
+        <v>0.06729960300806399</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03378631166675416</v>
+        <v>0.06604931580208305</v>
       </c>
       <c r="P26" t="n">
-        <v>0.05965180512878838</v>
+        <v>0.0640121453759447</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01760849011704191</v>
+        <v>0.0256652722679187</v>
       </c>
       <c r="R26" t="n">
-        <v>0.06188695797458166</v>
+        <v>0.04365320015003531</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02603122858340693</v>
+        <v>0.009093044310036574</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04962881650550702</v>
+        <v>0.06192103742119864</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0281506186409421</v>
+        <v>0.01890250652272941</v>
       </c>
       <c r="V26" t="n">
-        <v>0.02852672220453525</v>
+        <v>0.01958880856455689</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05039297145996911</v>
+        <v>0.0492772171757355</v>
       </c>
       <c r="X26" t="n">
-        <v>0.03363013205350388</v>
+        <v>0.006494593125171377</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.001736510685848159</v>
+        <v>0.0001447721502763452</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.04539882222127744</v>
+        <v>0.04631636435278088</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.03950296873644495</v>
+        <v>0.02754814542457929</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02503163360399878</v>
+        <v>0.07178204608103539</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.04097126721983275</v>
+        <v>0.01051738635126764</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.0349471602051511</v>
+        <v>0.04428980955372377</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.02841530560653569</v>
+        <v>0.01457652110235655</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.0508021386443904</v>
+        <v>0.0500809198678533</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.05749376800167774</v>
+        <v>0.02337289444262512</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1948378004579082</v>
+        <v>0.2186390601354116</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.679144871455539</v>
+        <v>0.6785204015090056</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003638835835337628</v>
+        <v>0.03516148582886155</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05658881061039101</v>
+        <v>0.05608134220883046</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00259439732085537</v>
+        <v>0.04771879911864751</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04177315064432355</v>
+        <v>0.003606253684684848</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01499856514054418</v>
+        <v>0.01448229887966584</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0388274074772965</v>
+        <v>0.03921685670896957</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0664232370008699</v>
+        <v>0.04885149248972583</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001729532610941694</v>
+        <v>0.0212204940021583</v>
       </c>
       <c r="N27" t="n">
-        <v>0.05944573080957159</v>
+        <v>0.05200485757011787</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02934258439175575</v>
+        <v>0.005170748077493191</v>
       </c>
       <c r="P27" t="n">
-        <v>0.06716251883687156</v>
+        <v>0.07080332673326832</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.09117486613422232</v>
+        <v>0.05917544358740256</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02727574330477758</v>
+        <v>0.03141815606699234</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01942015213155915</v>
+        <v>0.007212531512751232</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0119968945668257</v>
+        <v>0.04815197602688237</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0905680182380481</v>
+        <v>0.07133122825509966</v>
       </c>
       <c r="V27" t="n">
-        <v>0.005397418163149778</v>
+        <v>0.02169361116789754</v>
       </c>
       <c r="W27" t="n">
-        <v>0.04022910908650052</v>
+        <v>0.03857408425952254</v>
       </c>
       <c r="X27" t="n">
-        <v>0.009591224835559685</v>
+        <v>0.01719080327047074</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.07435998544473775</v>
+        <v>0.07476651631389349</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.06684540472842899</v>
+        <v>0.06831400990553126</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.001563889501927513</v>
+        <v>0.01011431340625463</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01354540525674557</v>
+        <v>0.01889284650970235</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.07899175566296197</v>
+        <v>0.008763328471453599</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.001561584308005522</v>
+        <v>0.01405314158084475</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0162993004889549</v>
+        <v>0.03470552667503828</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.04526141354198497</v>
+        <v>0.004828407875738348</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.0233930639268513</v>
+        <v>0.07649611981210096</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.2082764884092509</v>
+        <v>0.2361584905972731</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1900855601000052</v>
+        <v>0.1870103826448816</v>
       </c>
       <c r="F28" t="n">
-        <v>0.009502984829337664</v>
+        <v>0.006928307716165886</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02141959411091528</v>
+        <v>0.05627152216748523</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02060686044762267</v>
+        <v>0.004818050622531467</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04650002186430002</v>
+        <v>0.05412068828084619</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005948032913146081</v>
+        <v>0.06888477206348663</v>
       </c>
       <c r="K28" t="n">
-        <v>0.06380943376061272</v>
+        <v>0.06935526539862633</v>
       </c>
       <c r="L28" t="n">
-        <v>0.025730869213805</v>
+        <v>0.03757181454333435</v>
       </c>
       <c r="M28" t="n">
-        <v>0.05956566975343876</v>
+        <v>0.0598801535710071</v>
       </c>
       <c r="N28" t="n">
-        <v>0.03299809406429384</v>
+        <v>0.005548524342461223</v>
       </c>
       <c r="O28" t="n">
-        <v>0.04367437363361828</v>
+        <v>0.003095869821517496</v>
       </c>
       <c r="P28" t="n">
-        <v>0.04892183806910675</v>
+        <v>0.0234293583875431</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.08405406389830375</v>
+        <v>0.05814800281857903</v>
       </c>
       <c r="R28" t="n">
-        <v>0.07718008425797099</v>
+        <v>0.03312284105171246</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03010107986668798</v>
+        <v>0.06346954793601098</v>
       </c>
       <c r="T28" t="n">
-        <v>0.06073480527182123</v>
+        <v>0.04653059814694008</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004000455167176011</v>
+        <v>0.0007636472030624972</v>
       </c>
       <c r="V28" t="n">
-        <v>0.03750498954302071</v>
+        <v>0.03215227424492629</v>
       </c>
       <c r="W28" t="n">
-        <v>0.04770443950564168</v>
+        <v>0.005248183654410287</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01408600762129262</v>
+        <v>0.00161477951599279</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.03186759822245593</v>
+        <v>0.03313552272763087</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.005798453625993027</v>
+        <v>0.00151779842893178</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.005131888349293582</v>
+        <v>0.04268075754353193</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.02469435190199131</v>
+        <v>0.06192024590928984</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.04830995027169607</v>
+        <v>0.03393247205469185</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.02244093160622136</v>
+        <v>0.05836862082704012</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.02062606765200944</v>
+        <v>0.0584583021116671</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.05559981156197299</v>
+        <v>0.04626791502760395</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.05148724901625423</v>
+        <v>0.0327641638829733</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.003834375198610357</v>
+        <v>0.00460185823063228</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5472132131394237</v>
+        <v>0.6175675606493956</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06661628010675669</v>
+        <v>0.07468743254641735</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05429666033929374</v>
+        <v>0.06809688237392322</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0003536049726222356</v>
+        <v>0.0285054567803156</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0544907159613459</v>
+        <v>0.01491978645018359</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0321682368325034</v>
+        <v>0.05699646712230748</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0620681139207445</v>
+        <v>0.06059198255963041</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03766759341537049</v>
+        <v>0.02546645363149446</v>
       </c>
       <c r="M29" t="n">
-        <v>7.238389330625553e-05</v>
+        <v>0.005616629481987935</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01769666002905947</v>
+        <v>0.01187554684855935</v>
       </c>
       <c r="O29" t="n">
-        <v>0.06803753437023784</v>
+        <v>0.02469675054077254</v>
       </c>
       <c r="P29" t="n">
-        <v>0.03460105464860119</v>
+        <v>0.06877427352121743</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.06249107420785271</v>
+        <v>0.02897935010929743</v>
       </c>
       <c r="R29" t="n">
-        <v>0.04388411068019264</v>
+        <v>0.02046749765945532</v>
       </c>
       <c r="S29" t="n">
-        <v>0.06764864362162733</v>
+        <v>0.05709643404330873</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01492739779577134</v>
+        <v>0.0419908309006979</v>
       </c>
       <c r="U29" t="n">
-        <v>0.003463216585981506</v>
+        <v>0.01180947634382885</v>
       </c>
       <c r="V29" t="n">
-        <v>0.06073889345191268</v>
+        <v>0.04358777741256042</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02738040033779404</v>
+        <v>0.05758284573438029</v>
       </c>
       <c r="X29" t="n">
-        <v>0.02379529284508647</v>
+        <v>0.0133313390604568</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.004769540360311584</v>
+        <v>0.003903988996435139</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.02722949683278129</v>
+        <v>0.02342854474517315</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.06807051607110887</v>
+        <v>0.033178794330305</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.06254769050260604</v>
+        <v>0.01993371754654001</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0343220809520292</v>
+        <v>0.03384047960518898</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.03674815292632817</v>
+        <v>0.05592087725017234</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.0176345260481244</v>
+        <v>0.03724876608203279</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.0007200205555667365</v>
+        <v>0.01692011464504698</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.01556010773508319</v>
+        <v>0.06055150367831056</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.09302795086218479</v>
+        <v>0.1061640246092083</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1489843118368107</v>
+        <v>0.189158127913821</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02092545765371042</v>
+        <v>0.0246125360882065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02385667424774729</v>
+        <v>0.02238114662002684</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007895350395704057</v>
+        <v>0.001133306427943404</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0156465470575076</v>
+        <v>0.03168911455234587</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0826293014540387</v>
+        <v>0.03483408063394939</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02195496937843094</v>
+        <v>0.05546373560365008</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01359406282148375</v>
+        <v>0.0475440703520118</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002838557853355938</v>
+        <v>0.003758149961046205</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06848550401141708</v>
+        <v>0.008717493709092031</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0492558630594695</v>
+        <v>0.005455282745055905</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04167167173908094</v>
+        <v>0.09855312518803409</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06653148370284083</v>
+        <v>0.07945344735279554</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04339258497831624</v>
+        <v>0.02004713847380564</v>
       </c>
       <c r="S2" t="n">
-        <v>0.08479933554066807</v>
+        <v>0.0004491642537470698</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04878572814938424</v>
+        <v>0.04771031372318895</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007193072955584017</v>
+        <v>0.009479081344770492</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04051017791308235</v>
+        <v>0.04776132217490493</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001471576420371627</v>
+        <v>0.03906013854166349</v>
       </c>
       <c r="X2" t="n">
-        <v>0.08335472114243771</v>
+        <v>0.08825923490333015</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.049105108669355</v>
+        <v>0.04195433266811536</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0599473199151464</v>
+        <v>0.01916819508810631</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.002946026321210971</v>
+        <v>0.06611830589490809</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01075712228902194</v>
+        <v>0.0281469272987613</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.00298550702824985</v>
+        <v>0.01346356107566475</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.02238614134774754</v>
+        <v>0.03030674179730337</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0214476634236048</v>
+        <v>0.08275436777279005</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02262019826629633</v>
+        <v>0.01785564044234816</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.08301227226473576</v>
+        <v>0.03387004531243429</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1080459066698215</v>
+        <v>0.1106325200512855</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.5319397584582419</v>
+        <v>0.6713717550861977</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06499196425645572</v>
+        <v>0.03561887034858813</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06568509279647056</v>
+        <v>0.05412501753693752</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01642422277717322</v>
+        <v>0.01206311974834527</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008008996541272266</v>
+        <v>0.03987098130721776</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01251042762797833</v>
+        <v>0.005227752911952632</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003488363646343585</v>
+        <v>0.02321935984393282</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02347920863896657</v>
+        <v>0.01831823682827819</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003698960849547996</v>
+        <v>0.007386435717947535</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0260728637521168</v>
+        <v>0.0753194469154531</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04464892950899683</v>
+        <v>0.008517667877602154</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07698222715623554</v>
+        <v>0.002440727323311924</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0398273953190357</v>
+        <v>0.04985950790160601</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0456284190196397</v>
+        <v>0.01364290093734264</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01103081479313318</v>
+        <v>0.072191113362488</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04818299266369632</v>
+        <v>0.0379747822982005</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003459799981213165</v>
+        <v>0.07304875430348574</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01635949569741106</v>
+        <v>0.04341686514145477</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06610755444272604</v>
+        <v>0.06672705622549442</v>
       </c>
       <c r="X3" t="n">
-        <v>0.07128874168500797</v>
+        <v>0.04300667144353517</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0354689591118724</v>
+        <v>0.00132871328154415</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.003436508959302877</v>
+        <v>0.01363999804000874</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02575637383287177</v>
+        <v>0.01890290801752674</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.04386033676523834</v>
+        <v>0.0574988475400395</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.07239873333669984</v>
+        <v>0.008336564755602861</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0521948250305013</v>
+        <v>0.04746850964490441</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02430070425865843</v>
+        <v>0.0765839851934433</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.01785635514649185</v>
+        <v>0.04211868055271071</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.07685073240494261</v>
+        <v>0.0521465250010453</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.07945207144514034</v>
+        <v>0.1045008284432751</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2247528359422422</v>
+        <v>0.2234686087764818</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01223836976342271</v>
+        <v>0.0545962293442868</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04364099828563085</v>
+        <v>0.05756150727470631</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02011300059296712</v>
+        <v>0.01911578120071284</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07037015822440593</v>
+        <v>0.02276426606004813</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02831430835571883</v>
+        <v>0.006918896034286016</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07820079703172741</v>
+        <v>0.06538190483491839</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03912661594338809</v>
+        <v>0.02287832092270429</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01962078593441847</v>
+        <v>0.0251923597477107</v>
       </c>
       <c r="N4" t="n">
-        <v>0.008412059577266659</v>
+        <v>0.02634906871183394</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002202311256896803</v>
+        <v>0.0123222778856358</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07477039798703045</v>
+        <v>0.06418245139420432</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.004758965916352594</v>
+        <v>0.01089712388524234</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03183972798527208</v>
+        <v>0.01407728474300154</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05462410094107954</v>
+        <v>0.03125116669717633</v>
       </c>
       <c r="T4" t="n">
-        <v>0.07804218960072612</v>
+        <v>0.05674468848489507</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00745428717622449</v>
+        <v>0.04381968833708924</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04245088667504985</v>
+        <v>0.03972148940088859</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0561056762944469</v>
+        <v>0.03004595212863971</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02560966520205436</v>
+        <v>0.0690793888774108</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.00227780023468695</v>
+        <v>0.001031056132907726</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.02458215908591707</v>
+        <v>0.05884241355342561</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.000465682381637397</v>
+        <v>0.01416363636778695</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.05639181867469627</v>
+        <v>0.08915022071141389</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.04710612811765989</v>
+        <v>0.003333938986527837</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.03332987646229592</v>
+        <v>0.07249096603491088</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.05537547321632756</v>
+        <v>0.02388086628388787</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0308330630776649</v>
+        <v>0.05585801004356359</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.05174269600503494</v>
+        <v>0.008349045920184556</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.3128084454615781</v>
+        <v>-0.3731008860193334</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7448192737040756</v>
+        <v>0.7510471558061714</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03991518926839698</v>
+        <v>0.08667125556466723</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05193110245678806</v>
+        <v>0.02946961482975389</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05200987747748023</v>
+        <v>0.01019687491558065</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03994408166766163</v>
+        <v>0.02230586884874982</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04425488630036657</v>
+        <v>0.004261306074038733</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02514896503870719</v>
+        <v>0.06112733766334545</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008195065496979471</v>
+        <v>0.03047311309414562</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06444737937041137</v>
+        <v>0.05285321746784475</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03262245078059525</v>
+        <v>0.0001458576898383822</v>
       </c>
       <c r="O5" t="n">
-        <v>0.006212174365600576</v>
+        <v>0.03338819351386244</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01151392765683985</v>
+        <v>0.007785169434308421</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06531751895321045</v>
+        <v>0.08598532408157195</v>
       </c>
       <c r="R5" t="n">
-        <v>0.002678505199473875</v>
+        <v>0.0055429636560862</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0146747299998933</v>
+        <v>0.08624556453348958</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02120970454556939</v>
+        <v>1.300493390164533e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>0.005638095889163592</v>
+        <v>0.007315227371708898</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03832430132550679</v>
+        <v>0.06821936391276115</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03574284834648053</v>
+        <v>0.01256123222670264</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06064153680319385</v>
+        <v>0.01848447865568554</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.06351632084649199</v>
+        <v>0.05235115115162501</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.03228250931925369</v>
+        <v>0.05215701077836753</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.567429201649091e-05</v>
+        <v>0.0200877662829422</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.04880875453255876</v>
+        <v>0.03826152075296528</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.04844417007047624</v>
+        <v>0.06700460228280399</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.05097173326199492</v>
+        <v>0.04573040761579795</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01712307372483074</v>
+        <v>0.05540647237801104</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.05226950715709638</v>
+        <v>0.01470905040991327</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0661459158529618</v>
+        <v>0.03124704987953079</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.3855258351895</v>
+        <v>-0.4515751981242114</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2520991336078812</v>
+        <v>0.2495582383576198</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01362840740234908</v>
+        <v>0.06172844079092005</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02911636105369333</v>
+        <v>0.06938503335424662</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005863617539078264</v>
+        <v>0.008503690591462823</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03331196821725563</v>
+        <v>0.01995026012951457</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02663942354154341</v>
+        <v>0.03043902223282911</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01657729378695371</v>
+        <v>0.02590481219826423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03076428436016528</v>
+        <v>0.04009019264829627</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0225574246397827</v>
+        <v>0.01012668998778528</v>
       </c>
       <c r="N6" t="n">
-        <v>0.06686708053958608</v>
+        <v>0.03809929358405373</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006466057411813222</v>
+        <v>0.001483525127875263</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0381240231350194</v>
+        <v>0.01873763353060317</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01320359709164175</v>
+        <v>0.01476946359752441</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05989198344988515</v>
+        <v>0.0562760918842883</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03251530946988067</v>
+        <v>0.02249684787186392</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02965841436994874</v>
+        <v>0.004090569956819324</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05402437013010668</v>
+        <v>0.04527716719797265</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04771251999257049</v>
+        <v>0.06649498825854017</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01905702885653016</v>
+        <v>0.06691681597786446</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05828964048601938</v>
+        <v>0.03875849184680578</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.06067231289318466</v>
+        <v>0.008338314796067383</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.04628450655033269</v>
+        <v>0.04956649170283371</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0009863556162809681</v>
+        <v>0.01495578959491268</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.03151048759452982</v>
+        <v>0.07619162086277224</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.03727350987445723</v>
+        <v>0.04433399855325277</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.05431412609936655</v>
+        <v>0.04579400359086148</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02655521716223287</v>
+        <v>0.04050569028115165</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.07055583005141611</v>
+        <v>0.01802094594781589</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.06757884868437602</v>
+        <v>0.06276411390280212</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.2192504910394083</v>
+        <v>0.2163282386318862</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.159046459541337</v>
+        <v>1.181012011994791</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08534908054789009</v>
+        <v>0.04855947586817602</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09453491907791597</v>
+        <v>0.00233835681628218</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04074174121858311</v>
+        <v>0.09843358831687285</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0200325642690583</v>
+        <v>0.04515619477017987</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01979242504068594</v>
+        <v>0.03740204050812128</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00157594115950947</v>
+        <v>0.002745324053597333</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007304280254350288</v>
+        <v>0.04493958023687949</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08625378895721848</v>
+        <v>0.01430853513087119</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02724084954367374</v>
+        <v>0.01281610917058413</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09142530633026766</v>
+        <v>0.08632163327730241</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05088574231290913</v>
+        <v>0.07627642482143455</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04928523274723463</v>
+        <v>0.02990801164225961</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02004572644441617</v>
+        <v>0.02942583429000348</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07050182351607291</v>
+        <v>0.02722642222232391</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03714234532563407</v>
+        <v>0.01727978033101242</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01466137037512801</v>
+        <v>0.004129285801087812</v>
       </c>
       <c r="V7" t="n">
-        <v>0.002080338590730094</v>
+        <v>0.05846549283143192</v>
       </c>
       <c r="W7" t="n">
-        <v>0.06429960998032329</v>
+        <v>0.08223172780021239</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03791271555418659</v>
+        <v>0.06512131049616876</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1009556681532951</v>
+        <v>0.001157852669694989</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.004142026141443254</v>
+        <v>0.006939500672201455</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.008046748908317728</v>
+        <v>0.001653472485060827</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.005398347118038466</v>
+        <v>0.05709948729798141</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01320750203054705</v>
+        <v>0.04306610900286217</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.007819153000145128</v>
+        <v>0.03800065530374441</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0274242136882698</v>
+        <v>0.02756539035031185</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.005124250641674089</v>
+        <v>0.01562978750952876</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.006816289072481555</v>
+        <v>0.02580261632381263</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2632554193539478</v>
+        <v>0.2924639865425127</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.435550692565993</v>
+        <v>0.4194287333658906</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006989804262459111</v>
+        <v>0.001732081067339844</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003320845966123808</v>
+        <v>0.04145362100381643</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01878245664313396</v>
+        <v>0.01796867504160205</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06255931495846034</v>
+        <v>0.04344663341127467</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04734124071051356</v>
+        <v>0.06105398887857082</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03623714610948107</v>
+        <v>0.04718910150034381</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02526523722116675</v>
+        <v>0.03043779867569096</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06724754803943656</v>
+        <v>0.03394985412477967</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03777186009780637</v>
+        <v>0.06828311602122263</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03060519231512628</v>
+        <v>8.76538505636902e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07368045711934833</v>
+        <v>0.05084869506276678</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004781864846163197</v>
+        <v>0.006413161267159076</v>
       </c>
       <c r="R8" t="n">
-        <v>0.003227255870853662</v>
+        <v>0.0160055171314928</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0454126231395317</v>
+        <v>0.02362582840992233</v>
       </c>
       <c r="T8" t="n">
-        <v>0.07298290702867581</v>
+        <v>0.05492559791978925</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04118155076668042</v>
+        <v>0.03891459800955232</v>
       </c>
       <c r="V8" t="n">
-        <v>0.07244367910583738</v>
+        <v>0.06067626177444615</v>
       </c>
       <c r="W8" t="n">
-        <v>0.008597489067591104</v>
+        <v>0.06853857126733723</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01934899116092094</v>
+        <v>0.02563102988346017</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01310648459947749</v>
+        <v>0.009160166924617505</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.04106721441962908</v>
+        <v>0.0249223608901507</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0677615967932035</v>
+        <v>0.01465578715223465</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02452768727110191</v>
+        <v>0.04493615233267093</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.05434594587150775</v>
+        <v>0.001902006579785052</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.04312229009542812</v>
+        <v>0.0664393274972519</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.02245732699636852</v>
+        <v>0.01676785568645593</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0151924432020952</v>
+        <v>0.05606745414595447</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.04064154632187822</v>
+        <v>0.07396710448974814</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.121587203999592</v>
+        <v>0.1222985317607402</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.758268797763061</v>
+        <v>1.266673577834326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04816204306510749</v>
+        <v>0.09057025137018265</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02096300386766003</v>
+        <v>0.008275442365683358</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04288176749454409</v>
+        <v>0.01818476568775563</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08173678843487804</v>
+        <v>0.0337256680250981</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02378955026844362</v>
+        <v>0.004054332883974907</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05735969715738711</v>
+        <v>0.0121341379392731</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01495961182657933</v>
+        <v>0.08502731262518951</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04311969108071039</v>
+        <v>0.05461119306608906</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0008388911685754405</v>
+        <v>0.03561637966556895</v>
       </c>
       <c r="O9" t="n">
-        <v>0.024744057636576</v>
+        <v>0.04502109830453224</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05881114993688205</v>
+        <v>0.08200698352242007</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07592873746572136</v>
+        <v>0.003753792401869204</v>
       </c>
       <c r="R9" t="n">
-        <v>1.539351424315483e-05</v>
+        <v>0.007036225413662182</v>
       </c>
       <c r="S9" t="n">
-        <v>0.006320885238623428</v>
+        <v>0.07152205786411557</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02489098707350756</v>
+        <v>0.05225319708444208</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009823699279024895</v>
+        <v>0.01073470780187019</v>
       </c>
       <c r="V9" t="n">
-        <v>0.03450576715751898</v>
+        <v>0.0281756259781263</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0122949779801885</v>
+        <v>0.03245132266547543</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02428561968486214</v>
+        <v>0.02227531946615455</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04809170941171457</v>
+        <v>0.001595809310121878</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.04133045112528871</v>
+        <v>0.06416953975329154</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.009615251974482869</v>
+        <v>0.02476413347486749</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.02484065511548661</v>
+        <v>0.08177761270733797</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.03711848451980554</v>
+        <v>0.01574215805421134</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.06553968724784466</v>
+        <v>0.03293331089839337</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.05971617398087437</v>
+        <v>0.04711451071431224</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.08240990853764905</v>
+        <v>0.02169495031237775</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.02590535875581993</v>
+        <v>0.01277816064360306</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1422309851853292</v>
+        <v>0.09203189303018679</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.3644486376740486</v>
+        <v>0.3887503982145442</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03253643086149809</v>
+        <v>0.08164011359286856</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002728771808176427</v>
+        <v>0.09251313732455813</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003523384970891313</v>
+        <v>0.02888669911737141</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07776190734793209</v>
+        <v>0.0764535421972125</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02054085424105426</v>
+        <v>0.05169563387304767</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00507604198779282</v>
+        <v>0.02652014419277485</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04544219449917736</v>
+        <v>0.06002541100676094</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01148982793114312</v>
+        <v>0.01151930877139858</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0449248711656746</v>
+        <v>0.04995986773637012</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001051978102470909</v>
+        <v>0.05344991166214018</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06085424912307678</v>
+        <v>0.04169306993118242</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.000641407953643741</v>
+        <v>0.003462828985139189</v>
       </c>
       <c r="R10" t="n">
-        <v>0.009920155023197645</v>
+        <v>0.005325530623369222</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04770130824471484</v>
+        <v>0.01005766539948151</v>
       </c>
       <c r="T10" t="n">
-        <v>0.07463924727441343</v>
+        <v>0.01978736780630861</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07921896745573967</v>
+        <v>0.07388245147835676</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01286293857220161</v>
+        <v>0.01839700636631071</v>
       </c>
       <c r="W10" t="n">
-        <v>0.06944729703351329</v>
+        <v>0.02189689299376561</v>
       </c>
       <c r="X10" t="n">
-        <v>0.006076544685599468</v>
+        <v>0.008902141204576412</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.08039720564387841</v>
+        <v>0.005863962317074123</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.06699924616383687</v>
+        <v>0.007959702625701037</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.05131200190774092</v>
+        <v>0.0128035006342001</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.05497608441150083</v>
+        <v>0.0677890274176115</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.00285799421141943</v>
+        <v>0.07344869042906255</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01491665875698889</v>
+        <v>0.002042997619470915</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01553446485668976</v>
+        <v>0.001487996646819676</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.02770797664654524</v>
+        <v>0.001720194514919724</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.07885998911948812</v>
+        <v>0.0908152035321471</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.043524765108687</v>
+        <v>0.003077960097416877</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.6027538402381585</v>
+        <v>1.601840355557742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05047880556479229</v>
+        <v>0.0600749859129286</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05911794578346411</v>
+        <v>0.02729617501546648</v>
       </c>
       <c r="H11" t="n">
-        <v>0.009347899697835194</v>
+        <v>0.03382231338535414</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0285968812840376</v>
+        <v>0.05499765398271698</v>
       </c>
       <c r="J11" t="n">
-        <v>0.009490430321972778</v>
+        <v>0.001106056427040769</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0009071445740787851</v>
+        <v>0.0105365614264905</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05497643020715153</v>
+        <v>0.07314552867985649</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07714574307914442</v>
+        <v>0.0228376821075565</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001063359053191365</v>
+        <v>0.02015032970546163</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05474378977411419</v>
+        <v>0.03818542011164904</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03325627252664921</v>
+        <v>0.04346887481260876</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001458956243561067</v>
+        <v>0.0323102548884195</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002978818406278697</v>
+        <v>0.02976873123984965</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01883972282551381</v>
+        <v>0.06052142446727558</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01525771868723163</v>
+        <v>0.03357096446327162</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04574227986967846</v>
+        <v>0.04320892973222437</v>
       </c>
       <c r="V11" t="n">
-        <v>0.06047506147881281</v>
+        <v>0.01396443591795273</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03317923314784564</v>
+        <v>0.03040638118451936</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01970123447603672</v>
+        <v>0.05156759383727096</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.06778666798531102</v>
+        <v>0.05567278809026062</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02632430048730462</v>
+        <v>0.006652759169356297</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.04357096277480476</v>
+        <v>0.01207213373818262</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.07395499970196286</v>
+        <v>0.0103829588343399</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01685686814071739</v>
+        <v>0.03264880634353253</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.02096771320257471</v>
+        <v>0.09852076269921108</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.04375638533274909</v>
+        <v>0.004511702081228261</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.05557561900757786</v>
+        <v>0.002915384823822281</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.07444875636560726</v>
+        <v>0.09568240692215296</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01746674402821073</v>
+        <v>0.05477080791912636</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1640182340393827</v>
+        <v>0.1626656367783852</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04815984481395089</v>
+        <v>0.04107711452411604</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01505834065632958</v>
+        <v>0.08333300132427791</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001034111511497691</v>
+        <v>0.001559477416918624</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01619407838991111</v>
+        <v>0.06020065985340826</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01119199648149507</v>
+        <v>0.03171145236684197</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001402236227483223</v>
+        <v>0.03120710422068642</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03232531993510931</v>
+        <v>0.02536167316932116</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02430066696680016</v>
+        <v>0.07051942268503406</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05135719299413356</v>
+        <v>0.06601271576091952</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06616026212960652</v>
+        <v>0.002767400144329877</v>
       </c>
       <c r="P12" t="n">
-        <v>0.006494803108240578</v>
+        <v>0.02581378471714109</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.05113407969365152</v>
+        <v>0.009354757866934779</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02451506974090414</v>
+        <v>0.03218290666438194</v>
       </c>
       <c r="S12" t="n">
-        <v>0.06635904794592658</v>
+        <v>0.03332422256418607</v>
       </c>
       <c r="T12" t="n">
-        <v>0.09137457018077433</v>
+        <v>0.03124980200765452</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06091082817827348</v>
+        <v>0.002152699494645664</v>
       </c>
       <c r="V12" t="n">
-        <v>0.08378868770855408</v>
+        <v>0.03924085775020836</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02087275873769553</v>
+        <v>0.008484379797959777</v>
       </c>
       <c r="X12" t="n">
-        <v>0.00795400069120375</v>
+        <v>0.009368234230680922</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.08491269398791805</v>
+        <v>0.07084622996619377</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.00122610500665683</v>
+        <v>0.07974048217411003</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.002623190724371333</v>
+        <v>0.01218252884211452</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06239765640805088</v>
+        <v>0.05952146948684088</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01345426065042102</v>
+        <v>0.06859430196116093</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.02041061828678365</v>
+        <v>0.02360916667914736</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.006384593326577637</v>
+        <v>0.007288768913043542</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.04132692422451049</v>
+        <v>0.03680422682491002</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.08667606129316893</v>
+        <v>0.03649115859283183</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.09706595934071878</v>
+        <v>0.109050188782545</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2754762638030799</v>
+        <v>0.2357909301215596</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006785949306171893</v>
+        <v>0.009576863793982449</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02797840865033055</v>
+        <v>0.01242887888587962</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02348474669879921</v>
+        <v>0.07633157476147258</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03847962453197165</v>
+        <v>0.01355596847817308</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01358466496215254</v>
+        <v>0.03020307606310099</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01221741430373462</v>
+        <v>0.007548820323300982</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009993058212781515</v>
+        <v>0.004325972499537359</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01870396352439926</v>
+        <v>0.006752477102969426</v>
       </c>
       <c r="N13" t="n">
-        <v>0.05819570922359249</v>
+        <v>0.03457989558658534</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006686588855002662</v>
+        <v>0.03275298171608898</v>
       </c>
       <c r="P13" t="n">
-        <v>0.008588521290817558</v>
+        <v>0.05141382349772928</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.00917478857507615</v>
+        <v>0.007555674619417761</v>
       </c>
       <c r="R13" t="n">
-        <v>0.08818932548059037</v>
+        <v>0.07802852999295867</v>
       </c>
       <c r="S13" t="n">
-        <v>0.008977033514831815</v>
+        <v>0.03889991321809179</v>
       </c>
       <c r="T13" t="n">
-        <v>0.08287162277548739</v>
+        <v>0.04640108581583699</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05227088305715311</v>
+        <v>0.005826377399791725</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01800873126778936</v>
+        <v>0.03579026740174249</v>
       </c>
       <c r="W13" t="n">
-        <v>0.05073956490540515</v>
+        <v>0.07943214536123892</v>
       </c>
       <c r="X13" t="n">
-        <v>0.08750208857737385</v>
+        <v>0.008735945519998838</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0610219806133037</v>
+        <v>0.07805821974790041</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.004529901332712582</v>
+        <v>0.03888061091934799</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.03410615865902968</v>
+        <v>0.07399270457426209</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01664517014444013</v>
+        <v>0.06870177639629471</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.01394636448656843</v>
+        <v>0.02595887379449859</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.07622471656325457</v>
+        <v>0.07657355932979834</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.08605458497487077</v>
+        <v>0.01707551793123242</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.08470720481876828</v>
+        <v>0.01777791943093305</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0003312306935904134</v>
+        <v>0.02284054583783516</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.09434475753397736</v>
+        <v>0.08028478430678125</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1618343397379863</v>
+        <v>0.1588642738498008</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02040714948977084</v>
+        <v>0.003005802008587858</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01354738754454134</v>
+        <v>0.009788629373103059</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05217491078027445</v>
+        <v>0.04506794351410516</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01680122975996496</v>
+        <v>0.04726362588994771</v>
       </c>
       <c r="J14" t="n">
-        <v>0.009549087155874048</v>
+        <v>0.002795728671014598</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0003519507802466775</v>
+        <v>0.01651120722200582</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01236172249259066</v>
+        <v>0.01596639777937996</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03205534270280699</v>
+        <v>0.07366786050938563</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0879309716230864</v>
+        <v>0.02885286116514641</v>
       </c>
       <c r="O14" t="n">
-        <v>0.013378598964965</v>
+        <v>0.003915696332304239</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0336653674776691</v>
+        <v>0.03474889098825316</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08421332897345395</v>
+        <v>0.01083272564515796</v>
       </c>
       <c r="R14" t="n">
-        <v>0.04500421312762783</v>
+        <v>0.02264573650181003</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07131823876708707</v>
+        <v>0.07504428110544518</v>
       </c>
       <c r="T14" t="n">
-        <v>0.04775502364897731</v>
+        <v>0.06575839262219312</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02936510828850081</v>
+        <v>0.007292440493786793</v>
       </c>
       <c r="V14" t="n">
-        <v>0.05042316909846447</v>
+        <v>0.07744318499795332</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01520195073776002</v>
+        <v>0.07757555792015192</v>
       </c>
       <c r="X14" t="n">
-        <v>0.04634930077694877</v>
+        <v>0.0383954826836827</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0001424036285551158</v>
+        <v>0.003597480751114462</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.01143918364598623</v>
+        <v>0.06175726799244062</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0895295153544779</v>
+        <v>0.0132201013029001</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0727760711176159</v>
+        <v>0.08016830621797515</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0265210758469803</v>
+        <v>0.01201457900865576</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.001176724167615819</v>
+        <v>0.07521263709201861</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.07007584841213393</v>
+        <v>0.05625966684139301</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.03974725464219929</v>
+        <v>0.03146124396689312</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.006737870993824622</v>
+        <v>0.009736271403194515</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.2572524436251866</v>
+        <v>0.2345321142118025</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.71253074066007</v>
+        <v>0.2796438075154534</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003407544077640993</v>
+        <v>0.05315012971129039</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06610442963061548</v>
+        <v>0.08319122793864268</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01179681476647631</v>
+        <v>0.05162350400939107</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05920101346117779</v>
+        <v>0.04151126095641976</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03811381810938909</v>
+        <v>0.04907406764984733</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003571258190343331</v>
+        <v>0.08509857281433438</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0148400516347445</v>
+        <v>0.02762831629776196</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02481448950511991</v>
+        <v>0.08751444354207588</v>
       </c>
       <c r="N15" t="n">
-        <v>0.007591800734756737</v>
+        <v>0.08553827005632804</v>
       </c>
       <c r="O15" t="n">
-        <v>0.008837239809069872</v>
+        <v>0.0398933171452826</v>
       </c>
       <c r="P15" t="n">
-        <v>0.08156071714997683</v>
+        <v>0.03355107432439521</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.008716781242235907</v>
+        <v>0.003444403369785103</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05801796863079049</v>
+        <v>0.04851372231326726</v>
       </c>
       <c r="S15" t="n">
-        <v>0.07245497812885626</v>
+        <v>2.464297666283296e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0249767812802763</v>
+        <v>0.01803680018408202</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06394180039509741</v>
+        <v>0.03227759784272104</v>
       </c>
       <c r="V15" t="n">
-        <v>0.03321211871668725</v>
+        <v>0.03640949315357597</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02201702700305107</v>
+        <v>0.03697848040340859</v>
       </c>
       <c r="X15" t="n">
-        <v>0.04615923852229678</v>
+        <v>0.0002670377573469851</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.08319116030856465</v>
+        <v>0.0002766625972572492</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0164840074468194</v>
+        <v>0.07973654549176665</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0264553801798816</v>
+        <v>0.01372440615109685</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.04075397052391692</v>
+        <v>0.0062148855435929</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01578783966325329</v>
+        <v>0.002622476043923373</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0748517585468947</v>
+        <v>0.00721386432615055</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.03827017927415712</v>
+        <v>0.01814801557313776</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.05231462417640788</v>
+        <v>0.003967673095257304</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.002555208891502162</v>
+        <v>0.05436910873119816</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2393226478642493</v>
+        <v>0.219458702597369</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2103338702389858</v>
+        <v>0.1747274774301393</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05047647599003496</v>
+        <v>0.01617848424747673</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07823199546440859</v>
+        <v>0.02945641002387751</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009395836028354301</v>
+        <v>0.01000719927334842</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00488666285005168</v>
+        <v>0.004441478234971612</v>
       </c>
       <c r="J16" t="n">
-        <v>0.08780885622859429</v>
+        <v>0.04503101459818146</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07676666421026318</v>
+        <v>0.001506826120853986</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01101770051179839</v>
+        <v>0.07256110536339243</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01036071214118201</v>
+        <v>0.006309358424007891</v>
       </c>
       <c r="N16" t="n">
-        <v>0.08609914385737051</v>
+        <v>0.05607059221018776</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00275802944491106</v>
+        <v>0.0070511792631896</v>
       </c>
       <c r="P16" t="n">
-        <v>0.08689940364353976</v>
+        <v>0.001384952431649767</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0001511005626392059</v>
+        <v>0.05928407893906339</v>
       </c>
       <c r="R16" t="n">
-        <v>0.04524633777535267</v>
+        <v>0.0843111636956887</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0516949157555879</v>
+        <v>0.04262928710448505</v>
       </c>
       <c r="T16" t="n">
-        <v>0.05157391227043082</v>
+        <v>0.03457564168862898</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03494833688093477</v>
+        <v>0.03121674730772053</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01428454975424289</v>
+        <v>0.07806758614082443</v>
       </c>
       <c r="W16" t="n">
-        <v>0.04086464415947033</v>
+        <v>0.008544435585699436</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0004186981358478701</v>
+        <v>0.001794386275411019</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.00657054718649048</v>
+        <v>0.07263656321779952</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.009624687140252927</v>
+        <v>0.06663043712439394</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.03200746802207251</v>
+        <v>0.04841879254941413</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.03767463336039782</v>
+        <v>0.0151867434225749</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.03586245062910295</v>
+        <v>0.04779302821328775</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0456684361330807</v>
+        <v>0.06154295487941024</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0246730298540781</v>
+        <v>0.05694872765186575</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.01144850174677933</v>
+        <v>0.03154429148343404</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.05258627026272996</v>
+        <v>0.008876534529161151</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.152131098523302</v>
+        <v>0.134505459660485</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.8506682253610053</v>
+        <v>0.2492489642682107</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08130773915111496</v>
+        <v>0.006262212181537418</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06882870729778778</v>
+        <v>0.04347951567964969</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02940891067836355</v>
+        <v>0.00524357184275997</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002118128024233874</v>
+        <v>0.03269338603509992</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0002830679120199626</v>
+        <v>0.059514314909716</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02485907783124129</v>
+        <v>0.02421855086101148</v>
       </c>
       <c r="L17" t="n">
-        <v>0.032547611584652</v>
+        <v>0.04185530056199479</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08990115318186558</v>
+        <v>0.04540263493332087</v>
       </c>
       <c r="N17" t="n">
-        <v>0.000670435297174072</v>
+        <v>0.06188086489395657</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01111465317281815</v>
+        <v>0.02912707133505819</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03729154826083169</v>
+        <v>0.06150109221600099</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02003605571837441</v>
+        <v>0.06191865167743914</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0696652501988905</v>
+        <v>0.01097681795243237</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01451136017822873</v>
+        <v>0.04968850370960835</v>
       </c>
       <c r="T17" t="n">
-        <v>0.05292968116470777</v>
+        <v>0.04941629693046258</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06691401748401153</v>
+        <v>0.00551608268215311</v>
       </c>
       <c r="V17" t="n">
-        <v>0.007315973903888977</v>
+        <v>0.01739317160673782</v>
       </c>
       <c r="W17" t="n">
-        <v>0.00927686427377558</v>
+        <v>0.0166379656414141</v>
       </c>
       <c r="X17" t="n">
-        <v>0.06023372214827535</v>
+        <v>0.009560096631163584</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02146098837104505</v>
+        <v>0.02377359190818998</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.04516582970220648</v>
+        <v>0.04497572523463213</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03213901505053394</v>
+        <v>0.03714776327140938</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.02006984873084636</v>
+        <v>0.05944016548482726</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.03366964217270295</v>
+        <v>0.003031384383420595</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.04003456153854729</v>
+        <v>0.05602298353624074</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.06282786457824324</v>
+        <v>0.06326618088269519</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.04903212695967604</v>
+        <v>0.02456705651588072</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.01638616543394296</v>
+        <v>0.05548904650118711</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1335680796103169</v>
+        <v>0.139241079714748</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.520594935317363</v>
+        <v>0.4952323092112044</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00801959709244938</v>
+        <v>0.03562198954941078</v>
       </c>
       <c r="G18" t="n">
-        <v>0.003204004540568506</v>
+        <v>0.02336259848473788</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06179619781515696</v>
+        <v>0.07709620869733835</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05848891760843312</v>
+        <v>0.04213977916821532</v>
       </c>
       <c r="J18" t="n">
-        <v>0.06281717316163581</v>
+        <v>0.05744543691480623</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05208230302556951</v>
+        <v>0.05361454040090943</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0008656047017014352</v>
+        <v>0.009562088975442444</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06816401930812598</v>
+        <v>0.04762559883509475</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0120653786102555</v>
+        <v>0.04357363816720641</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02433117036925966</v>
+        <v>0.03602417856828148</v>
       </c>
       <c r="P18" t="n">
-        <v>0.02989030497339419</v>
+        <v>0.01776988954887832</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.05797290224333546</v>
+        <v>0.05861562068487131</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06357758204324156</v>
+        <v>0.004968522481265999</v>
       </c>
       <c r="S18" t="n">
-        <v>0.03261877641529196</v>
+        <v>0.03647061398799605</v>
       </c>
       <c r="T18" t="n">
-        <v>0.06902614006150332</v>
+        <v>0.04836543664599408</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01539004116016138</v>
+        <v>0.01340035208297552</v>
       </c>
       <c r="V18" t="n">
-        <v>0.03963680367518869</v>
+        <v>0.04754647817330801</v>
       </c>
       <c r="W18" t="n">
-        <v>0.008706465547382729</v>
+        <v>0.01170852886451304</v>
       </c>
       <c r="X18" t="n">
-        <v>0.07007510833991118</v>
+        <v>0.0323332548858165</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.04228000816342994</v>
+        <v>0.06075072756284863</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.009276049868959598</v>
+        <v>0.02338416853427167</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01735272046792563</v>
+        <v>0.02215453417075313</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0176634195148256</v>
+        <v>0.0359920046573482</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.00967828447790514</v>
+        <v>0.008505167340154673</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.03012233355896096</v>
+        <v>0.03397449848203665</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.06178202685739662</v>
+        <v>0.07363146772135917</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.05538689096563547</v>
+        <v>0.04380354743326736</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.01772977543239485</v>
+        <v>0.0005591289808984798</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.03317052758298038</v>
+        <v>-0.01545694238832697</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.999634305959606</v>
+        <v>0.873699691338204</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04660636065721441</v>
+        <v>0.08194610104245492</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02132800273486758</v>
+        <v>0.004257161786034701</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06744375173393355</v>
+        <v>0.04964491544192341</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06770674309832131</v>
+        <v>0.017271022211592</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03736246802325598</v>
+        <v>0.006418723219444476</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03732128910840271</v>
+        <v>0.04858836606622047</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001573966955875688</v>
+        <v>0.03893178010492176</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02688049194610781</v>
+        <v>0.02559937849745185</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0112233231078856</v>
+        <v>0.02662229748584587</v>
       </c>
       <c r="O19" t="n">
-        <v>0.008403741516051453</v>
+        <v>0.07193319158084339</v>
       </c>
       <c r="P19" t="n">
-        <v>0.009856589620363492</v>
+        <v>0.01389817329744308</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.05614011240042478</v>
+        <v>0.0422698931037857</v>
       </c>
       <c r="R19" t="n">
-        <v>0.04747255897875584</v>
+        <v>0.01367564028221099</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01956327983396304</v>
+        <v>0.09329897237932321</v>
       </c>
       <c r="T19" t="n">
-        <v>0.06915503589833866</v>
+        <v>0.03850468886468351</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06683416041619347</v>
+        <v>0.09287012313492755</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01481710423150194</v>
+        <v>0.02212367451869975</v>
       </c>
       <c r="W19" t="n">
-        <v>0.05280945220720799</v>
+        <v>0.03155853108905121</v>
       </c>
       <c r="X19" t="n">
-        <v>0.008922205398984365</v>
+        <v>0.07881601187906498</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.08107249164281048</v>
+        <v>0.07263835568307521</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.06178964742513816</v>
+        <v>0.04649160548336246</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.08269976318087401</v>
+        <v>0.01300430814147278</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.008507678834953403</v>
+        <v>0.01428428920500417</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01203616109280223</v>
+        <v>0.0134682506733976</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.04603181176304801</v>
+        <v>0.0004306401591328746</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.01286316450870191</v>
+        <v>0.003472601384281418</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.02331550320680454</v>
+        <v>0.006672195876326063</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.000263140477217673</v>
+        <v>0.03130910740802446</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.02587712002003402</v>
+        <v>-0.01459884274666243</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.137600725108716</v>
+        <v>0.133499976245826</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02177421707163728</v>
+        <v>0.0191585429178244</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03935751697691426</v>
+        <v>0.04070979951240092</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05853182469847851</v>
+        <v>0.0631061073091468</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08148781065169623</v>
+        <v>0.0381696560900654</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02957339929873289</v>
+        <v>0.03948859536344521</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06479590778978779</v>
+        <v>0.04928198917664988</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01166627350891842</v>
+        <v>0.04653056360826319</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05199238501439076</v>
+        <v>0.05354072985642754</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0002765672905351077</v>
+        <v>0.005425139779273856</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01176773122386825</v>
+        <v>0.005237528279388329</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01633132629095314</v>
+        <v>0.02195618229738198</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.04088335051825159</v>
+        <v>0.02272895357080625</v>
       </c>
       <c r="R20" t="n">
-        <v>0.02221780372034444</v>
+        <v>0.0649075601565115</v>
       </c>
       <c r="S20" t="n">
-        <v>0.007045478745223329</v>
+        <v>0.05453508575145494</v>
       </c>
       <c r="T20" t="n">
-        <v>0.07061115561854472</v>
+        <v>0.002072394564099968</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07852103542872486</v>
+        <v>0.03095620502434751</v>
       </c>
       <c r="V20" t="n">
-        <v>0.004268799380566224</v>
+        <v>0.03588718009912547</v>
       </c>
       <c r="W20" t="n">
-        <v>0.003779210698472887</v>
+        <v>0.02999305018855343</v>
       </c>
       <c r="X20" t="n">
-        <v>0.07401189180854237</v>
+        <v>0.05000841749934525</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.01276624751803305</v>
+        <v>0.0204800254497356</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.01177823115844283</v>
+        <v>0.01762077332870634</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.02277858585655437</v>
+        <v>0.001153641535890727</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.04913586162031051</v>
+        <v>0.0006018657045439072</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.06924726481175683</v>
+        <v>0.07156506321440402</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.00354641370815293</v>
+        <v>0.03965743077534568</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.03816016807842458</v>
+        <v>0.06932709338279439</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.01890697239994751</v>
+        <v>0.03702783363600824</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.08478656911379426</v>
+        <v>0.06887259192805928</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1190659008633763</v>
+        <v>0.1206641947765292</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.4998323973918627</v>
+        <v>0.4949522785529246</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0989278151632082</v>
+        <v>0.09362242728466114</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01365333629055932</v>
+        <v>0.04256542587201233</v>
       </c>
       <c r="H21" t="n">
-        <v>0.009274001890313294</v>
+        <v>0.008429044435003082</v>
       </c>
       <c r="I21" t="n">
-        <v>0.005940572501436878</v>
+        <v>0.02433172892301323</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02631099106881279</v>
+        <v>0.00111978978167453</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04923572755622881</v>
+        <v>0.05415109075684647</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02010609525152013</v>
+        <v>0.0311600042350378</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01589185771234907</v>
+        <v>0.002903915407143534</v>
       </c>
       <c r="N21" t="n">
-        <v>0.09243519243905914</v>
+        <v>0.09540263157949604</v>
       </c>
       <c r="O21" t="n">
-        <v>0.05366209309815891</v>
+        <v>0.02378363555568761</v>
       </c>
       <c r="P21" t="n">
-        <v>0.04018194572506156</v>
+        <v>0.01315113942930706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01833336728241204</v>
+        <v>0.03497140435593785</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01589850795318156</v>
+        <v>0.009685273149855374</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01763924418646915</v>
+        <v>0.02981665839099875</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04946556157999355</v>
+        <v>0.03324228105057207</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0196771256479781</v>
+        <v>0.002190448974563204</v>
       </c>
       <c r="V21" t="n">
-        <v>0.05581377232128719</v>
+        <v>0.001294993497134018</v>
       </c>
       <c r="W21" t="n">
-        <v>0.03967127588980341</v>
+        <v>0.07930893942792572</v>
       </c>
       <c r="X21" t="n">
-        <v>0.03353685676098024</v>
+        <v>0.01020814627766998</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.018750387314172</v>
+        <v>0.007488455282731807</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.08050448356883373</v>
+        <v>0.03918780044085926</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.020359991162119</v>
+        <v>0.06146591219723585</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.02550657812034734</v>
+        <v>0.05637281844529435</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.01776740340051267</v>
+        <v>0.0007345964268953225</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.003434135458642757</v>
+        <v>0.06023543081696554</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.02532647166643456</v>
+        <v>0.08931467403705323</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.1062218505221214</v>
+        <v>0.03006169408836971</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.02647335846800309</v>
+        <v>0.06379963988005519</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.08353812266868749</v>
+        <v>0.07297582058655232</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.153441773270677</v>
+        <v>0.1377872901215287</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06414051253141734</v>
+        <v>0.07631622074584776</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0007288566209273569</v>
+        <v>0.05980859546247082</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04052527096855175</v>
+        <v>0.06963782805905865</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03561157637122195</v>
+        <v>0.05250737366565853</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01097982058321338</v>
+        <v>0.013964816924674</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02334196140174953</v>
+        <v>0.0193967968110399</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05374267343776251</v>
+        <v>0.0003777678390314381</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002253308711328434</v>
+        <v>0.0008568514253988389</v>
       </c>
       <c r="N22" t="n">
-        <v>0.04026225317562888</v>
+        <v>0.04753567903731738</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03982230507930189</v>
+        <v>0.01235701136591594</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02232061490942968</v>
+        <v>0.06367161621013059</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.008230732780899842</v>
+        <v>0.03123676931319792</v>
       </c>
       <c r="R22" t="n">
-        <v>0.02171926148350435</v>
+        <v>0.07164415571645204</v>
       </c>
       <c r="S22" t="n">
-        <v>0.04904932816399716</v>
+        <v>0.03176944057238211</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06940523972266233</v>
+        <v>0.06374241517023575</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004839349487889537</v>
+        <v>0.0004439310878107443</v>
       </c>
       <c r="V22" t="n">
-        <v>0.05090066918992801</v>
+        <v>0.03573269933197765</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0670218471371419</v>
+        <v>0.0268036368809201</v>
       </c>
       <c r="X22" t="n">
-        <v>0.08102168938250179</v>
+        <v>0.01313419064397712</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.02451147679225223</v>
+        <v>0.03070234967222934</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.07182019371325302</v>
+        <v>0.02715845263878751</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.05023589214602595</v>
+        <v>0.06007851403682193</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.04363851051867584</v>
+        <v>0.0296038963082512</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.02315443619767098</v>
+        <v>0.02121507114662888</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.003962895337382215</v>
+        <v>0.01030742885093425</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.06385918650137926</v>
+        <v>0.05784951347947664</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.001216392672438192</v>
+        <v>0.005788130529650144</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.03168374498186485</v>
+        <v>0.0663588470737229</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.2196208578153532</v>
+        <v>0.2134265662448721</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6296842386005898</v>
+        <v>1.549193337419601</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04274819502055611</v>
+        <v>0.004216675200750898</v>
       </c>
       <c r="G23" t="n">
-        <v>0.009220693613197377</v>
+        <v>0.0004785096346798225</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06673994482540488</v>
+        <v>0.02860808163388196</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02909453301327235</v>
+        <v>0.001328016498859494</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07642964712353698</v>
+        <v>0.0631074378968714</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05552718802264315</v>
+        <v>0.007264202301578716</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01831455100486554</v>
+        <v>0.03241143586080331</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001044340467473243</v>
+        <v>0.06191905806122485</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04006475251771383</v>
+        <v>0.02381540199845648</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03466389495840729</v>
+        <v>0.0893953604117901</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03610616354685736</v>
+        <v>0.002271958403182302</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.007794519126021872</v>
+        <v>0.03441956866917031</v>
       </c>
       <c r="R23" t="n">
-        <v>0.04015465828516623</v>
+        <v>0.01364791935026099</v>
       </c>
       <c r="S23" t="n">
-        <v>0.05293515570018776</v>
+        <v>0.04105987603090941</v>
       </c>
       <c r="T23" t="n">
-        <v>0.02863912100879249</v>
+        <v>0.04439677350467707</v>
       </c>
       <c r="U23" t="n">
-        <v>0.002883393514962044</v>
+        <v>0.0602831084458058</v>
       </c>
       <c r="V23" t="n">
-        <v>0.03166102248130597</v>
+        <v>0.005579169422260681</v>
       </c>
       <c r="W23" t="n">
-        <v>0.009144533474979634</v>
+        <v>0.07365193858908665</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0595470307765644</v>
+        <v>0.06312072101505635</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.06398210381259535</v>
+        <v>0.01144573030159078</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.001673185693489199</v>
+        <v>0.01145336594256667</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.001612770854724251</v>
+        <v>0.006261915887513861</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.06452785387609744</v>
+        <v>0.005649057744924578</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.006973095790021956</v>
+        <v>0.02240674054691638</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0761024377756474</v>
+        <v>0.09327075068638058</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.07101675170149002</v>
+        <v>0.07559590055404297</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.003864304326926983</v>
+        <v>0.05216640160892669</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.06753415768709878</v>
+        <v>0.07077492379783099</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2216983275189489</v>
+        <v>0.198639697492388</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.325388270339049</v>
+        <v>0.3354133203445983</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05148444146566791</v>
+        <v>0.04771345780438185</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05063726495641582</v>
+        <v>0.05453764430703337</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0004251261952854207</v>
+        <v>0.003463975761137665</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05699799719615565</v>
+        <v>0.07629726750883785</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02444733547665852</v>
+        <v>0.03864169325395585</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02754078738051521</v>
+        <v>0.01742174340699803</v>
       </c>
       <c r="L24" t="n">
-        <v>0.007735098137105253</v>
+        <v>0.05656638308634258</v>
       </c>
       <c r="M24" t="n">
-        <v>0.050139678814051</v>
+        <v>0.02893807179119487</v>
       </c>
       <c r="N24" t="n">
-        <v>0.05901240741533221</v>
+        <v>0.06656829903539586</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04907871740200961</v>
+        <v>0.01634699440489045</v>
       </c>
       <c r="P24" t="n">
-        <v>0.001109799158240285</v>
+        <v>0.0166391369687107</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.007068573227464272</v>
+        <v>0.01742920846416459</v>
       </c>
       <c r="R24" t="n">
-        <v>0.03614375772635185</v>
+        <v>0.045619148386267</v>
       </c>
       <c r="S24" t="n">
-        <v>0.02554692957356325</v>
+        <v>0.03955648757405034</v>
       </c>
       <c r="T24" t="n">
-        <v>0.05775266934118264</v>
+        <v>0.0444617162901056</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0294434867033093</v>
+        <v>0.01428193316763378</v>
       </c>
       <c r="V24" t="n">
-        <v>0.06186142097605326</v>
+        <v>0.0682242772943004</v>
       </c>
       <c r="W24" t="n">
-        <v>0.06258869177221821</v>
+        <v>0.05583043125293485</v>
       </c>
       <c r="X24" t="n">
-        <v>0.04226845273827267</v>
+        <v>0.03274557414817836</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.04345983944723882</v>
+        <v>0.07495837037037509</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01037747225876709</v>
+        <v>0.003977486663733353</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.03944956115530777</v>
+        <v>0.004837365884228184</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.03358177407415752</v>
+        <v>0.0480524997678132</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01574112125129624</v>
+        <v>0.01004702045217498</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.03967386826607678</v>
+        <v>0.0119771510724574</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.04840861651542149</v>
+        <v>0.03540753963809304</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.058985585245944</v>
+        <v>0.0577602745896663</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.009039526129937874</v>
+        <v>0.01169884765494428</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.02485831938478298</v>
+        <v>-0.006690312833867494</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.8217490684692305</v>
+        <v>0.4045688409145726</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04030948579510433</v>
+        <v>0.05108564424157497</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04367080335649043</v>
+        <v>0.03976927923613624</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07046164637443428</v>
+        <v>0.02937713146490858</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07010705928801515</v>
+        <v>0.08057696897778717</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02611409255874989</v>
+        <v>0.005796184296464112</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01067201413074695</v>
+        <v>0.05405868039713705</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01536101244026047</v>
+        <v>0.04049319920432151</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03425821406895513</v>
+        <v>0.05930825918357973</v>
       </c>
       <c r="N25" t="n">
-        <v>0.04105094122707583</v>
+        <v>0.05504389869564897</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006335094497914073</v>
+        <v>0.04809775985555899</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0001533549706287028</v>
+        <v>0.004164968336508329</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.08869343986156926</v>
+        <v>0.005814037596071704</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0496955635232661</v>
+        <v>0.01898814744414043</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08106575809870492</v>
+        <v>0.0009909734496802286</v>
       </c>
       <c r="T25" t="n">
-        <v>0.006725651173867591</v>
+        <v>0.06173680684409995</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02466519647076434</v>
+        <v>0.05211748331135588</v>
       </c>
       <c r="V25" t="n">
-        <v>0.08901239256653806</v>
+        <v>0.03629272001138755</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0001459910607199954</v>
+        <v>0.07916684161823172</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0276049716905182</v>
+        <v>0.002367960960674619</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.02551446111335283</v>
+        <v>0.05607027124194166</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.02316645323577151</v>
+        <v>0.00957967585706266</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.04573530736581656</v>
+        <v>0.02377368532693104</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.03997349780343917</v>
+        <v>0.02528064346851185</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.03697056993805911</v>
+        <v>0.01936822958288647</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.02304603704354968</v>
+        <v>0.0439194581745745</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.03991923566688532</v>
+        <v>0.06671311619308594</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.02728551248794561</v>
+        <v>0.02259032444379442</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.01228624219085633</v>
+        <v>0.007457650585943762</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.01897896224802626</v>
+        <v>0.004826247483038267</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1106271338435765</v>
+        <v>0.1220617417713901</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02903436746507953</v>
+        <v>0.0161829097172139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06808601981737314</v>
+        <v>0.05126848335272749</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06518982484672199</v>
+        <v>0.06981412244434078</v>
       </c>
       <c r="I26" t="n">
-        <v>0.009554753467391429</v>
+        <v>0.005073938416635909</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04220180546450329</v>
+        <v>0.06329267460068026</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01220622637506168</v>
+        <v>0.0006705284656090201</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01232216242308309</v>
+        <v>0.04568342185273687</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04081923709081342</v>
+        <v>0.04716212636360594</v>
       </c>
       <c r="N26" t="n">
-        <v>0.06729960300806399</v>
+        <v>0.04671379071114944</v>
       </c>
       <c r="O26" t="n">
-        <v>0.06604931580208305</v>
+        <v>0.04152407510418404</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0640121453759447</v>
+        <v>0.07326564096931153</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0256652722679187</v>
+        <v>0.01881696448843769</v>
       </c>
       <c r="R26" t="n">
-        <v>0.04365320015003531</v>
+        <v>0.06967379897426181</v>
       </c>
       <c r="S26" t="n">
-        <v>0.009093044310036574</v>
+        <v>0.004451971500691117</v>
       </c>
       <c r="T26" t="n">
-        <v>0.06192103742119864</v>
+        <v>0.03033437205848002</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01890250652272941</v>
+        <v>0.008150723027528837</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01958880856455689</v>
+        <v>0.008546807454271525</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0492772171757355</v>
+        <v>0.07627960165460923</v>
       </c>
       <c r="X26" t="n">
-        <v>0.006494593125171377</v>
+        <v>0.0245629584965673</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0001447721502763452</v>
+        <v>0.006112295220794178</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.04631636435278088</v>
+        <v>0.05022528666896509</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.02754814542457929</v>
+        <v>0.03013399876856789</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.07178204608103539</v>
+        <v>0.01351271753100286</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01051738635126764</v>
+        <v>0.02531756576894794</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.04428980955372377</v>
+        <v>0.04363128533994994</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.01457652110235655</v>
+        <v>0.02531963316257804</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.0500809198678533</v>
+        <v>0.04308016038250763</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.02337289444262512</v>
+        <v>0.06119814750364377</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.2186390601354116</v>
+        <v>0.1941684885979973</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.6785204015090056</v>
+        <v>0.4813479138271248</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03516148582886155</v>
+        <v>0.002959996707241235</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05608134220883046</v>
+        <v>0.03128950247780781</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04771879911864751</v>
+        <v>0.005769266249518467</v>
       </c>
       <c r="I27" t="n">
-        <v>0.003606253684684848</v>
+        <v>0.06233418022907383</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01448229887966584</v>
+        <v>0.0031236532654078</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03921685670896957</v>
+        <v>0.01058057004870331</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04885149248972583</v>
+        <v>0.07626713975469449</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0212204940021583</v>
+        <v>0.07079261824802152</v>
       </c>
       <c r="N27" t="n">
-        <v>0.05200485757011787</v>
+        <v>0.04035851054700063</v>
       </c>
       <c r="O27" t="n">
-        <v>0.005170748077493191</v>
+        <v>0.001140188704388305</v>
       </c>
       <c r="P27" t="n">
-        <v>0.07080332673326832</v>
+        <v>0.06660788598661124</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.05917544358740256</v>
+        <v>0.003185353463066871</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03141815606699234</v>
+        <v>0.03605623623245187</v>
       </c>
       <c r="S27" t="n">
-        <v>0.007212531512751232</v>
+        <v>0.001157261984603534</v>
       </c>
       <c r="T27" t="n">
-        <v>0.04815197602688237</v>
+        <v>0.06523722676503381</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07133122825509966</v>
+        <v>0.07318375159026891</v>
       </c>
       <c r="V27" t="n">
-        <v>0.02169361116789754</v>
+        <v>0.01226138429489815</v>
       </c>
       <c r="W27" t="n">
-        <v>0.03857408425952254</v>
+        <v>0.04474660332168472</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01719080327047074</v>
+        <v>0.02061905407927571</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.07476651631389349</v>
+        <v>0.09362739714378676</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.06831400990553126</v>
+        <v>0.06181664207312385</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.01011431340625463</v>
+        <v>0.08649258716975146</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01889284650970235</v>
+        <v>0.02545436162782982</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.008763328471453599</v>
+        <v>0.005507749090655959</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.01405314158084475</v>
+        <v>0.01471271896049853</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.03470552667503828</v>
+        <v>0.016659107221032</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.004828407875738348</v>
+        <v>0.04184275792692264</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.07649611981210096</v>
+        <v>0.02621629483664662</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.2361584905972731</v>
+        <v>0.1862750396862572</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1870103826448816</v>
+        <v>0.1909829135225646</v>
       </c>
       <c r="F28" t="n">
-        <v>0.006928307716165886</v>
+        <v>0.005276056358311287</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05627152216748523</v>
+        <v>0.06698109820826202</v>
       </c>
       <c r="H28" t="n">
-        <v>0.004818050622531467</v>
+        <v>0.0008196149380039413</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05412068828084619</v>
+        <v>0.04770622441430646</v>
       </c>
       <c r="J28" t="n">
-        <v>0.06888477206348663</v>
+        <v>0.05628599421540118</v>
       </c>
       <c r="K28" t="n">
-        <v>0.06935526539862633</v>
+        <v>0.06691398388778917</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03757181454333435</v>
+        <v>0.02332207929397602</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0598801535710071</v>
+        <v>0.05122351485160452</v>
       </c>
       <c r="N28" t="n">
-        <v>0.005548524342461223</v>
+        <v>0.07529588567574974</v>
       </c>
       <c r="O28" t="n">
-        <v>0.003095869821517496</v>
+        <v>0.02597424652135699</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0234293583875431</v>
+        <v>0.01480069246111311</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.05814800281857903</v>
+        <v>0.0573872513144951</v>
       </c>
       <c r="R28" t="n">
-        <v>0.03312284105171246</v>
+        <v>0.01092353912906302</v>
       </c>
       <c r="S28" t="n">
-        <v>0.06346954793601098</v>
+        <v>0.03658095557969112</v>
       </c>
       <c r="T28" t="n">
-        <v>0.04653059814694008</v>
+        <v>0.07181096597118862</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0007636472030624972</v>
+        <v>0.001077587725193483</v>
       </c>
       <c r="V28" t="n">
-        <v>0.03215227424492629</v>
+        <v>0.003412392285634743</v>
       </c>
       <c r="W28" t="n">
-        <v>0.005248183654410287</v>
+        <v>0.05536069846372262</v>
       </c>
       <c r="X28" t="n">
-        <v>0.00161477951599279</v>
+        <v>0.04347444896420119</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.03313552272763087</v>
+        <v>0.01494193363153678</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.00151779842893178</v>
+        <v>0.005838859545009185</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.04268075754353193</v>
+        <v>0.06263446354963795</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.06192024590928984</v>
+        <v>0.07472345314878696</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.03393247205469185</v>
+        <v>0.007361984138122351</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.05836862082704012</v>
+        <v>0.02650414857532695</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0584583021116671</v>
+        <v>0.03360562443451959</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.04626791502760395</v>
+        <v>0.004963477184368831</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0327641638829733</v>
+        <v>0.05479882553362694</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.00460185823063228</v>
+        <v>0.0600403918811617</v>
       </c>
     </row>
     <row r="29">
@@ -3590,97 +3590,97 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.6175675606493956</v>
+        <v>0.702405968430193</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07468743254641735</v>
+        <v>0.07091804454219386</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06809688237392322</v>
+        <v>0.02764056913029435</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0285054567803156</v>
+        <v>0.002083117263868153</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01491978645018359</v>
+        <v>0.0143531574216635</v>
       </c>
       <c r="J29" t="n">
-        <v>0.05699646712230748</v>
+        <v>0.02249553376475005</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06059198255963041</v>
+        <v>0.009777160980749265</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02546645363149446</v>
+        <v>0.03862777753637663</v>
       </c>
       <c r="M29" t="n">
-        <v>0.005616629481987935</v>
+        <v>0.0164662878458199</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01187554684855935</v>
+        <v>0.08645179884750674</v>
       </c>
       <c r="O29" t="n">
-        <v>0.02469675054077254</v>
+        <v>0.08069243904613278</v>
       </c>
       <c r="P29" t="n">
-        <v>0.06877427352121743</v>
+        <v>0.07383534678161542</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02897935010929743</v>
+        <v>0.05935397560186995</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02046749765945532</v>
+        <v>0.08092381267648759</v>
       </c>
       <c r="S29" t="n">
-        <v>0.05709643404330873</v>
+        <v>0.05702282284378409</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0419908309006979</v>
+        <v>0.04360460783314533</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01180947634382885</v>
+        <v>0.01098406951661304</v>
       </c>
       <c r="V29" t="n">
-        <v>0.04358777741256042</v>
+        <v>0.009268073618626079</v>
       </c>
       <c r="W29" t="n">
-        <v>0.05758284573438029</v>
+        <v>0.05556097999796494</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0133313390604568</v>
+        <v>0.04395229002105543</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.003903988996435139</v>
+        <v>0.004298420335672896</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.02342854474517315</v>
+        <v>0.0003568580675781045</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.033178794330305</v>
+        <v>0.06173126630075493</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.01993371754654001</v>
+        <v>0.00735383153038457</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.03384047960518898</v>
+        <v>0.0007771438570939058</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.05592087725017234</v>
+        <v>0.06412209058859093</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.03724876608203279</v>
+        <v>0.0191109381802447</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.01692011464504698</v>
+        <v>0.01858958911667424</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.06055150367831056</v>
+        <v>0.01964799675248876</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1061640246092083</v>
+        <v>0.09652625932949457</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>